--- a/data/full_sheet.xlsx
+++ b/data/full_sheet.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M209"/>
+  <dimension ref="A1:N209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,22 +405,27 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>info_employment</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>employment</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>gdp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>gdp_per_capita</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>population</t>
         </is>
       </c>
     </row>
@@ -455,16 +460,19 @@
         <v>-179</v>
       </c>
       <c r="J2">
+        <v>33237</v>
+      </c>
+      <c r="K2">
         <v>1526554</v>
       </c>
-      <c r="K2">
-        <v>99190</v>
-      </c>
       <c r="L2">
-        <v>23119.04033257482</v>
+        <v>99190000000</v>
       </c>
       <c r="M2">
-        <v>4290403</v>
+        <v>4331102</v>
+      </c>
+      <c r="N2">
+        <v>22901.79266154434</v>
       </c>
     </row>
     <row r="3">
@@ -498,17 +506,20 @@
         <v>-2587</v>
       </c>
       <c r="J3">
+        <v>36125</v>
+      </c>
+      <c r="K3">
         <v>1608688</v>
       </c>
-      <c r="K3">
-        <v>123534.5</v>
-      </c>
       <c r="L3">
-        <v>27650.98931559747</v>
+        <v>123534500000</v>
       </c>
       <c r="M3">
         <v>4467634</v>
       </c>
+      <c r="N3">
+        <v>27650.98931559747</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -541,16 +552,19 @@
         <v>-1816</v>
       </c>
       <c r="J4">
+        <v>36217</v>
+      </c>
+      <c r="K4">
         <v>1570832</v>
       </c>
-      <c r="K4">
-        <v>177510.7</v>
-      </c>
       <c r="L4">
-        <v>37095.01477232975</v>
+        <v>177510700000</v>
       </c>
       <c r="M4">
-        <v>4785298</v>
+        <v>4788095</v>
+      </c>
+      <c r="N4">
+        <v>37073.34545367207</v>
       </c>
     </row>
     <row r="5">
@@ -584,17 +598,20 @@
         <v>228</v>
       </c>
       <c r="J5">
+        <v>33459</v>
+      </c>
+      <c r="K5">
         <v>1637669</v>
       </c>
-      <c r="K5">
-        <v>203113.3</v>
-      </c>
       <c r="L5">
-        <v>41374.20590050022</v>
+        <v>203113300000</v>
       </c>
       <c r="M5">
         <v>4909177</v>
       </c>
+      <c r="N5">
+        <v>41374.20590050022</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -605,9 +622,6 @@
       <c r="B6">
         <v>1996</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
       <c r="D6">
         <v>36</v>
       </c>
@@ -627,16 +641,19 @@
         <v>-57</v>
       </c>
       <c r="J6">
+        <v>4672</v>
+      </c>
+      <c r="K6">
         <v>177550</v>
       </c>
-      <c r="K6">
-        <v>24161</v>
-      </c>
       <c r="L6">
-        <v>39940.95067430627</v>
+        <v>24161000000</v>
       </c>
       <c r="M6">
-        <v>604918</v>
+        <v>608569</v>
+      </c>
+      <c r="N6">
+        <v>39701.33214146629</v>
       </c>
     </row>
     <row r="7">
@@ -648,9 +665,6 @@
       <c r="B7">
         <v>2001</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
         <v>50</v>
       </c>
@@ -670,17 +684,20 @@
         <v>317</v>
       </c>
       <c r="J7">
+        <v>6629</v>
+      </c>
+      <c r="K7">
         <v>210542</v>
       </c>
-      <c r="K7">
-        <v>28660.9</v>
-      </c>
       <c r="L7">
-        <v>45226.86890300672</v>
+        <v>28660900000</v>
       </c>
       <c r="M7">
         <v>633714</v>
       </c>
+      <c r="N7">
+        <v>45226.86890300672</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -691,9 +708,6 @@
       <c r="B8">
         <v>2010</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="D8">
         <v>28</v>
       </c>
@@ -713,16 +727,19 @@
         <v>-442</v>
       </c>
       <c r="J8">
+        <v>6627</v>
+      </c>
+      <c r="K8">
         <v>253725</v>
       </c>
-      <c r="K8">
-        <v>53654</v>
-      </c>
       <c r="L8">
-        <v>75147.23698677143</v>
+        <v>53654000000</v>
       </c>
       <c r="M8">
-        <v>713985</v>
+        <v>714015</v>
+      </c>
+      <c r="N8">
+        <v>75144.07960617074</v>
       </c>
     </row>
     <row r="9">
@@ -734,9 +751,6 @@
       <c r="B9">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
         <v>40</v>
       </c>
@@ -756,17 +770,20 @@
         <v>-89</v>
       </c>
       <c r="J9">
+        <v>7050</v>
+      </c>
+      <c r="K9">
         <v>266906</v>
       </c>
-      <c r="K9">
-        <v>51574.2</v>
-      </c>
       <c r="L9">
-        <v>69777.84392250243</v>
+        <v>51574200000</v>
       </c>
       <c r="M9">
         <v>739120</v>
       </c>
+      <c r="N9">
+        <v>69777.84392250243</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -777,9 +794,6 @@
       <c r="B10">
         <v>1996</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
         <v>1062</v>
       </c>
@@ -799,16 +813,19 @@
         <v>5095</v>
       </c>
       <c r="J10">
+        <v>40235</v>
+      </c>
+      <c r="K10">
         <v>1569007</v>
       </c>
-      <c r="K10">
-        <v>111520</v>
-      </c>
       <c r="L10">
-        <v>25160.70634080483</v>
+        <v>111520000000</v>
       </c>
       <c r="M10">
-        <v>4432308</v>
+        <v>4586940</v>
+      </c>
+      <c r="N10">
+        <v>24312.50463271811</v>
       </c>
     </row>
     <row r="11">
@@ -842,17 +859,20 @@
         <v>1842</v>
       </c>
       <c r="J11">
+        <v>59085</v>
+      </c>
+      <c r="K11">
         <v>1939795</v>
       </c>
-      <c r="K11">
-        <v>172899.6</v>
-      </c>
       <c r="L11">
-        <v>32786.64152702288</v>
+        <v>172899600000</v>
       </c>
       <c r="M11">
         <v>5273477</v>
       </c>
+      <c r="N11">
+        <v>32786.64152702288</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -885,16 +905,19 @@
         <v>11</v>
       </c>
       <c r="J12">
+        <v>51868</v>
+      </c>
+      <c r="K12">
         <v>2062051</v>
       </c>
-      <c r="K12">
-        <v>250527</v>
-      </c>
       <c r="L12">
-        <v>39061.00296909586</v>
+        <v>250527000000</v>
       </c>
       <c r="M12">
-        <v>6413737</v>
+        <v>6401304</v>
+      </c>
+      <c r="N12">
+        <v>39136.86961281639</v>
       </c>
     </row>
     <row r="13">
@@ -928,17 +951,20 @@
         <v>3562</v>
       </c>
       <c r="J13">
+        <v>50744</v>
+      </c>
+      <c r="K13">
         <v>2316570</v>
       </c>
-      <c r="K13">
-        <v>298942.2</v>
-      </c>
       <c r="L13">
-        <v>44580.93055557834</v>
+        <v>298942200000</v>
       </c>
       <c r="M13">
         <v>6705607</v>
       </c>
+      <c r="N13">
+        <v>44580.93055557834</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -971,16 +997,19 @@
         <v>441</v>
       </c>
       <c r="J14">
+        <v>20389</v>
+      </c>
+      <c r="K14">
         <v>888990</v>
       </c>
-      <c r="K14">
-        <v>56417</v>
-      </c>
       <c r="L14">
-        <v>22523.03324180453</v>
+        <v>56417000000</v>
       </c>
       <c r="M14">
-        <v>2504858</v>
+        <v>2572109</v>
+      </c>
+      <c r="N14">
+        <v>21934.14042717474</v>
       </c>
     </row>
     <row r="15">
@@ -1014,17 +1043,20 @@
         <v>1523</v>
       </c>
       <c r="J15">
+        <v>24360</v>
+      </c>
+      <c r="K15">
         <v>980391</v>
       </c>
-      <c r="K15">
-        <v>71099.60000000001</v>
-      </c>
       <c r="L15">
-        <v>26415.65093397128</v>
+        <v>71099600000</v>
       </c>
       <c r="M15">
         <v>2691571</v>
       </c>
+      <c r="N15">
+        <v>26415.65093397128</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1057,16 +1089,19 @@
         <v>-498</v>
       </c>
       <c r="J16">
+        <v>22767</v>
+      </c>
+      <c r="K16">
         <v>961050</v>
       </c>
-      <c r="K16">
-        <v>101699.3</v>
-      </c>
       <c r="L16">
-        <v>34809.38223702991</v>
+        <v>101699300000</v>
       </c>
       <c r="M16">
-        <v>2921606</v>
+        <v>2921546</v>
+      </c>
+      <c r="N16">
+        <v>34810.09711981259</v>
       </c>
     </row>
     <row r="17">
@@ -1100,17 +1135,20 @@
         <v>373</v>
       </c>
       <c r="J17">
+        <v>23235</v>
+      </c>
+      <c r="K17">
         <v>996418</v>
       </c>
-      <c r="K17">
-        <v>118573.6</v>
-      </c>
       <c r="L17">
-        <v>39920.94835045333</v>
+        <v>118573600000</v>
       </c>
       <c r="M17">
         <v>2970210</v>
       </c>
+      <c r="N17">
+        <v>39920.94835045333</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1143,16 +1181,19 @@
         <v>3200</v>
       </c>
       <c r="J18">
+        <v>405370</v>
+      </c>
+      <c r="K18">
         <v>10848852</v>
       </c>
-      <c r="K18">
-        <v>962696</v>
-      </c>
       <c r="L18">
-        <v>30291.72083585359</v>
+        <v>962696000000</v>
       </c>
       <c r="M18">
-        <v>31780829</v>
+        <v>32018834</v>
+      </c>
+      <c r="N18">
+        <v>30066.55395383855</v>
       </c>
     </row>
     <row r="19">
@@ -1186,17 +1227,20 @@
         <v>35002</v>
       </c>
       <c r="J19">
+        <v>556074</v>
+      </c>
+      <c r="K19">
         <v>12925092</v>
       </c>
-      <c r="K19">
-        <v>1373270.8</v>
-      </c>
       <c r="L19">
-        <v>39828.66552020626</v>
+        <v>1373270800000</v>
       </c>
       <c r="M19">
         <v>34479458</v>
       </c>
+      <c r="N19">
+        <v>39828.66552020626</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1229,16 +1273,19 @@
         <v>-23931</v>
       </c>
       <c r="J20">
+        <v>487172</v>
+      </c>
+      <c r="K20">
         <v>12338293</v>
       </c>
-      <c r="K20">
-        <v>1938603.3</v>
-      </c>
       <c r="L20">
-        <v>51904.58803808782</v>
+        <v>1938603300000</v>
       </c>
       <c r="M20">
-        <v>37349363</v>
+        <v>37322523</v>
+      </c>
+      <c r="N20">
+        <v>51941.9145377712</v>
       </c>
     </row>
     <row r="21">
@@ -1272,17 +1319,20 @@
         <v>32218</v>
       </c>
       <c r="J21">
+        <v>642836</v>
+      </c>
+      <c r="K21">
         <v>14073994</v>
       </c>
-      <c r="K21">
-        <v>2487156.4</v>
-      </c>
       <c r="L21">
-        <v>63827.34861468077</v>
+        <v>2487156400000</v>
       </c>
       <c r="M21">
         <v>38966939</v>
       </c>
+      <c r="N21">
+        <v>63827.34861468077</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1315,16 +1365,19 @@
         <v>5578</v>
       </c>
       <c r="J22">
+        <v>69007</v>
+      </c>
+      <c r="K22">
         <v>1577005</v>
       </c>
-      <c r="K22">
-        <v>116227</v>
-      </c>
       <c r="L22">
-        <v>30484.04339583646</v>
+        <v>116227000000</v>
       </c>
       <c r="M22">
-        <v>3812716</v>
+        <v>3919972</v>
+      </c>
+      <c r="N22">
+        <v>29649.95668336406</v>
       </c>
     </row>
     <row r="23">
@@ -1358,17 +1411,20 @@
         <v>14151</v>
       </c>
       <c r="J23">
+        <v>119642</v>
+      </c>
+      <c r="K23">
         <v>1953572</v>
       </c>
-      <c r="K23">
-        <v>185848.9</v>
-      </c>
       <c r="L23">
-        <v>41993.2317852573</v>
+        <v>185848900000</v>
       </c>
       <c r="M23">
         <v>4425687</v>
       </c>
+      <c r="N23">
+        <v>41993.2317852573</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1401,16 +1457,19 @@
         <v>-4537</v>
       </c>
       <c r="J24">
+        <v>78683</v>
+      </c>
+      <c r="K24">
         <v>1913306</v>
       </c>
-      <c r="K24">
-        <v>256771.8</v>
-      </c>
       <c r="L24">
-        <v>50855.2563431966</v>
+        <v>256771800000</v>
       </c>
       <c r="M24">
-        <v>5049071</v>
+        <v>5046928</v>
+      </c>
+      <c r="N24">
+        <v>50876.85023443964</v>
       </c>
     </row>
     <row r="25">
@@ -1444,17 +1503,20 @@
         <v>-2434</v>
       </c>
       <c r="J25">
+        <v>81722</v>
+      </c>
+      <c r="K25">
         <v>2195950</v>
       </c>
-      <c r="K25">
-        <v>320895.9</v>
-      </c>
       <c r="L25">
-        <v>58972.47646400263</v>
+        <v>320895900000</v>
       </c>
       <c r="M25">
         <v>5441452</v>
       </c>
+      <c r="N25">
+        <v>58972.47646400263</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1487,16 +1549,19 @@
         <v>2783</v>
       </c>
       <c r="J26">
+        <v>43923</v>
+      </c>
+      <c r="K26">
         <v>1395740</v>
       </c>
-      <c r="K26">
-        <v>124046</v>
-      </c>
       <c r="L26">
-        <v>37969.04221877363</v>
+        <v>124046000000</v>
       </c>
       <c r="M26">
-        <v>3267030</v>
+        <v>3336685</v>
+      </c>
+      <c r="N26">
+        <v>37176.41911058431</v>
       </c>
     </row>
     <row r="27">
@@ -1530,17 +1595,20 @@
         <v>429</v>
       </c>
       <c r="J27">
+        <v>50728</v>
+      </c>
+      <c r="K27">
         <v>1543660</v>
       </c>
-      <c r="K27">
-        <v>171124.4</v>
-      </c>
       <c r="L27">
-        <v>49849.2936596137</v>
+        <v>171124400000</v>
       </c>
       <c r="M27">
         <v>3432835</v>
       </c>
+      <c r="N27">
+        <v>49849.2936596137</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1573,16 +1641,19 @@
         <v>-1640</v>
       </c>
       <c r="J28">
+        <v>35389</v>
+      </c>
+      <c r="K28">
         <v>1426650</v>
       </c>
-      <c r="K28">
-        <v>234022.2</v>
-      </c>
       <c r="L28">
-        <v>65422.81915968726</v>
+        <v>234022200000</v>
       </c>
       <c r="M28">
-        <v>3577073</v>
+        <v>3580281</v>
+      </c>
+      <c r="N28">
+        <v>65364.19906705647</v>
       </c>
     </row>
     <row r="29">
@@ -1616,17 +1687,20 @@
         <v>955</v>
       </c>
       <c r="J29">
+        <v>41891</v>
+      </c>
+      <c r="K29">
         <v>1500968</v>
       </c>
-      <c r="K29">
-        <v>260648.5</v>
-      </c>
       <c r="L29">
-        <v>72163.99941194239</v>
+        <v>260648500000</v>
       </c>
       <c r="M29">
         <v>3611891</v>
       </c>
+      <c r="N29">
+        <v>72163.99941194239</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1659,16 +1733,19 @@
         <v>-28</v>
       </c>
       <c r="J30">
+        <v>5561</v>
+      </c>
+      <c r="K30">
         <v>331665</v>
       </c>
-      <c r="K30">
-        <v>28331</v>
-      </c>
       <c r="L30">
-        <v>38964.91493487739</v>
+        <v>28331000000</v>
       </c>
       <c r="M30">
-        <v>727090</v>
+        <v>740977</v>
+      </c>
+      <c r="N30">
+        <v>38234.65505676965</v>
       </c>
     </row>
     <row r="31">
@@ -1702,17 +1779,20 @@
         <v>253</v>
       </c>
       <c r="J31">
+        <v>8510</v>
+      </c>
+      <c r="K31">
         <v>384697</v>
       </c>
-      <c r="K31">
-        <v>46373.8</v>
-      </c>
       <c r="L31">
-        <v>58280.58097345856</v>
+        <v>46373800000</v>
       </c>
       <c r="M31">
         <v>795699</v>
       </c>
+      <c r="N31">
+        <v>58280.58097345856</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1745,16 +1825,19 @@
         <v>-459</v>
       </c>
       <c r="J32">
+        <v>6641</v>
+      </c>
+      <c r="K32">
         <v>358716</v>
       </c>
-      <c r="K32">
-        <v>58132.2</v>
-      </c>
       <c r="L32">
-        <v>64607.91603178149</v>
+        <v>58132200000</v>
       </c>
       <c r="M32">
-        <v>899769</v>
+        <v>899773</v>
+      </c>
+      <c r="N32">
+        <v>64607.62881304507</v>
       </c>
     </row>
     <row r="33">
@@ -1788,17 +1871,20 @@
         <v>496</v>
       </c>
       <c r="J33">
+        <v>8024</v>
+      </c>
+      <c r="K33">
         <v>393051</v>
       </c>
-      <c r="K33">
-        <v>72352.5</v>
-      </c>
       <c r="L33">
-        <v>76586.50853801565</v>
+        <v>72352500000</v>
       </c>
       <c r="M33">
         <v>944716</v>
       </c>
+      <c r="N33">
+        <v>76586.50853801565</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1828,16 +1914,19 @@
         <v>1461</v>
       </c>
       <c r="J34">
+        <v>20705</v>
+      </c>
+      <c r="K34">
         <v>364665</v>
       </c>
-      <c r="K34">
-        <v>51197</v>
-      </c>
       <c r="L34">
-        <v>95113.44615093085</v>
+        <v>51197000000</v>
       </c>
       <c r="M34">
-        <v>538273</v>
+        <v>572377</v>
+      </c>
+      <c r="N34">
+        <v>89446.29151765358</v>
       </c>
     </row>
     <row r="35">
@@ -1868,17 +1957,20 @@
         <v>-111</v>
       </c>
       <c r="J35">
+        <v>23298</v>
+      </c>
+      <c r="K35">
         <v>400218</v>
       </c>
-      <c r="K35">
-        <v>65620</v>
-      </c>
       <c r="L35">
-        <v>114220.2665255594</v>
+        <v>65620000000</v>
       </c>
       <c r="M35">
         <v>574504</v>
       </c>
+      <c r="N35">
+        <v>114220.2665255594</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1908,16 +2000,19 @@
         <v>-988</v>
       </c>
       <c r="J36">
+        <v>20382</v>
+      </c>
+      <c r="K36">
         <v>460731</v>
       </c>
-      <c r="K36">
-        <v>106128.6</v>
-      </c>
       <c r="L36">
-        <v>175577.9192095994</v>
+        <v>106128600000</v>
       </c>
       <c r="M36">
-        <v>604453</v>
+        <v>604718</v>
+      </c>
+      <c r="N36">
+        <v>175500.977315046</v>
       </c>
     </row>
     <row r="37">
@@ -1951,17 +2046,20 @@
         <v>1942</v>
       </c>
       <c r="J37">
+        <v>25035</v>
+      </c>
+      <c r="K37">
         <v>505596</v>
       </c>
-      <c r="K37">
-        <v>124753.6</v>
-      </c>
       <c r="L37">
-        <v>187561.3221376112</v>
+        <v>124753600000</v>
       </c>
       <c r="M37">
         <v>665135</v>
       </c>
+      <c r="N37">
+        <v>187561.3221376112</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1994,16 +2092,19 @@
         <v>1672</v>
       </c>
       <c r="J38">
+        <v>141490</v>
+      </c>
+      <c r="K38">
         <v>5310552</v>
       </c>
-      <c r="K38">
-        <v>360496</v>
-      </c>
       <c r="L38">
-        <v>25303.44998996625</v>
+        <v>360496000000</v>
       </c>
       <c r="M38">
-        <v>14246911</v>
+        <v>14853360</v>
+      </c>
+      <c r="N38">
+        <v>24270.33344643905</v>
       </c>
     </row>
     <row r="39">
@@ -2037,17 +2138,20 @@
         <v>10683</v>
       </c>
       <c r="J39">
+        <v>187020</v>
+      </c>
+      <c r="K39">
         <v>6393830</v>
       </c>
-      <c r="K39">
-        <v>519140.7</v>
-      </c>
       <c r="L39">
-        <v>31738.20254929918</v>
+        <v>519140700000</v>
       </c>
       <c r="M39">
         <v>16356966</v>
       </c>
+      <c r="N39">
+        <v>31738.20254929918</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2080,16 +2184,19 @@
         <v>-4677</v>
       </c>
       <c r="J40">
+        <v>152768</v>
+      </c>
+      <c r="K40">
         <v>6515011</v>
       </c>
-      <c r="K40">
-        <v>752998.4</v>
-      </c>
       <c r="L40">
-        <v>39961.01325211908</v>
+        <v>752998400000</v>
       </c>
       <c r="M40">
-        <v>18843326</v>
+        <v>18842405</v>
+      </c>
+      <c r="N40">
+        <v>39962.96651090984</v>
       </c>
     </row>
     <row r="41">
@@ -2123,17 +2230,20 @@
         <v>-296</v>
       </c>
       <c r="J41">
+        <v>169503</v>
+      </c>
+      <c r="K41">
         <v>7703266</v>
       </c>
-      <c r="K41">
-        <v>918464.3</v>
-      </c>
       <c r="L41">
-        <v>45603.12891827904</v>
+        <v>918464300000</v>
       </c>
       <c r="M41">
         <v>20140379</v>
       </c>
+      <c r="N41">
+        <v>45603.12891827904</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2166,16 +2276,19 @@
         <v>3375</v>
       </c>
       <c r="J42">
+        <v>108047</v>
+      </c>
+      <c r="K42">
         <v>2959834</v>
       </c>
-      <c r="K42">
-        <v>216033</v>
-      </c>
       <c r="L42">
-        <v>29463.49846056279</v>
+        <v>216033000000</v>
       </c>
       <c r="M42">
-        <v>7332225</v>
+        <v>7501069</v>
+      </c>
+      <c r="N42">
+        <v>28800.29499795296</v>
       </c>
     </row>
     <row r="43">
@@ -2209,17 +2322,20 @@
         <v>-2735</v>
       </c>
       <c r="J43">
+        <v>146271</v>
+      </c>
+      <c r="K43">
         <v>3431038</v>
       </c>
-      <c r="K43">
-        <v>316872.7</v>
-      </c>
       <c r="L43">
-        <v>37826.34148251446</v>
+        <v>316872700000</v>
       </c>
       <c r="M43">
         <v>8377038</v>
       </c>
+      <c r="N43">
+        <v>37826.34148251446</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2252,16 +2368,19 @@
         <v>-6948</v>
       </c>
       <c r="J44">
+        <v>117700</v>
+      </c>
+      <c r="K44">
         <v>3315724</v>
       </c>
-      <c r="K44">
-        <v>419013.1</v>
-      </c>
       <c r="L44">
-        <v>43141.24547867628</v>
+        <v>419013100000</v>
       </c>
       <c r="M44">
-        <v>9712587</v>
+        <v>9712616</v>
+      </c>
+      <c r="N44">
+        <v>43141.11666722951</v>
       </c>
     </row>
     <row r="45">
@@ -2295,17 +2414,20 @@
         <v>2655</v>
       </c>
       <c r="J45">
+        <v>122514</v>
+      </c>
+      <c r="K45">
         <v>3653505</v>
       </c>
-      <c r="K45">
-        <v>525516.8</v>
-      </c>
       <c r="L45">
-        <v>51562.14064642631</v>
+        <v>525516800000.0001</v>
       </c>
       <c r="M45">
         <v>10191912</v>
       </c>
+      <c r="N45">
+        <v>51562.14064642631</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2338,16 +2460,19 @@
         <v>588</v>
       </c>
       <c r="J46">
+        <v>9378</v>
+      </c>
+      <c r="K46">
         <v>414644</v>
       </c>
-      <c r="K46">
-        <v>36317</v>
-      </c>
       <c r="L46">
-        <v>30661.90264717156</v>
+        <v>36317000000</v>
       </c>
       <c r="M46">
-        <v>1184434</v>
+        <v>1203755</v>
+      </c>
+      <c r="N46">
+        <v>30169.76045790049</v>
       </c>
     </row>
     <row r="47">
@@ -2381,17 +2506,20 @@
         <v>-352</v>
       </c>
       <c r="J47">
+        <v>9027</v>
+      </c>
+      <c r="K47">
         <v>437682</v>
       </c>
-      <c r="K47">
-        <v>42500.2</v>
-      </c>
       <c r="L47">
-        <v>34667.21263870898</v>
+        <v>42500200000</v>
       </c>
       <c r="M47">
         <v>1225948</v>
       </c>
+      <c r="N47">
+        <v>34667.21263870898</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2424,16 +2552,19 @@
         <v>-499</v>
       </c>
       <c r="J48">
+        <v>8879</v>
+      </c>
+      <c r="K48">
         <v>477668</v>
       </c>
-      <c r="K48">
-        <v>66739.3</v>
-      </c>
       <c r="L48">
-        <v>48942.70475447357</v>
+        <v>66739300000</v>
       </c>
       <c r="M48">
-        <v>1363621</v>
+        <v>1365117</v>
+      </c>
+      <c r="N48">
+        <v>48889.06958158165</v>
       </c>
     </row>
     <row r="49">
@@ -2445,9 +2576,6 @@
       <c r="B49">
         <v>2015</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
       <c r="D49">
         <v>127</v>
       </c>
@@ -2467,17 +2595,20 @@
         <v>3</v>
       </c>
       <c r="J49">
+        <v>8293</v>
+      </c>
+      <c r="K49">
         <v>523315</v>
       </c>
-      <c r="K49">
-        <v>81410.2</v>
-      </c>
       <c r="L49">
-        <v>56282.68342122656</v>
+        <v>81410200000</v>
       </c>
       <c r="M49">
         <v>1446452</v>
       </c>
+      <c r="N49">
+        <v>56282.68342122656</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2510,16 +2641,19 @@
         <v>-39</v>
       </c>
       <c r="J50">
+        <v>8777</v>
+      </c>
+      <c r="K50">
         <v>383479</v>
       </c>
-      <c r="K50">
-        <v>27898</v>
-      </c>
       <c r="L50">
-        <v>23488.97791204221</v>
+        <v>27898000000</v>
       </c>
       <c r="M50">
-        <v>1187706</v>
+        <v>1203083</v>
+      </c>
+      <c r="N50">
+        <v>23188.75755039345</v>
       </c>
     </row>
     <row r="51">
@@ -2553,17 +2687,20 @@
         <v>430</v>
       </c>
       <c r="J51">
+        <v>12452</v>
+      </c>
+      <c r="K51">
         <v>463073</v>
       </c>
-      <c r="K51">
-        <v>37740.9</v>
-      </c>
       <c r="L51">
-        <v>28592.41402404008</v>
+        <v>37740900000</v>
       </c>
       <c r="M51">
         <v>1319962</v>
       </c>
+      <c r="N51">
+        <v>28592.41402404008</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2596,16 +2733,19 @@
         <v>-488</v>
       </c>
       <c r="J52">
+        <v>13319</v>
+      </c>
+      <c r="K52">
         <v>489118</v>
       </c>
-      <c r="K52">
-        <v>56086.2</v>
-      </c>
       <c r="L52">
-        <v>35690.73149002514</v>
+        <v>56086200000</v>
       </c>
       <c r="M52">
-        <v>1571450</v>
+        <v>1571339</v>
+      </c>
+      <c r="N52">
+        <v>35693.25269722192</v>
       </c>
     </row>
     <row r="53">
@@ -2639,17 +2779,20 @@
         <v>73</v>
       </c>
       <c r="J53">
+        <v>12262</v>
+      </c>
+      <c r="K53">
         <v>549283</v>
       </c>
-      <c r="K53">
-        <v>66064.89999999999</v>
-      </c>
       <c r="L53">
-        <v>39715.40008824989</v>
+        <v>66064899999.99999</v>
       </c>
       <c r="M53">
         <v>1663458</v>
       </c>
+      <c r="N53">
+        <v>39715.40008824989</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2682,16 +2825,19 @@
         <v>5458</v>
       </c>
       <c r="J54">
+        <v>125353</v>
+      </c>
+      <c r="K54">
         <v>4891900</v>
       </c>
-      <c r="K54">
-        <v>370778</v>
-      </c>
       <c r="L54">
-        <v>31019.65255091127</v>
+        <v>370778000000</v>
       </c>
       <c r="M54">
-        <v>11953003</v>
+        <v>12101997</v>
+      </c>
+      <c r="N54">
+        <v>30637.75342201787</v>
       </c>
     </row>
     <row r="55">
@@ -2725,17 +2871,20 @@
         <v>1300</v>
       </c>
       <c r="J55">
+        <v>147684</v>
+      </c>
+      <c r="K55">
         <v>5360419</v>
       </c>
-      <c r="K55">
-        <v>499618.4</v>
-      </c>
       <c r="L55">
-        <v>40006.45396604621</v>
+        <v>499618400000</v>
       </c>
       <c r="M55">
         <v>12488445</v>
       </c>
+      <c r="N55">
+        <v>40006.45396604621</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2768,16 +2917,19 @@
         <v>-4589</v>
       </c>
       <c r="J56">
+        <v>122391</v>
+      </c>
+      <c r="K56">
         <v>4942601</v>
       </c>
-      <c r="K56">
-        <v>663929</v>
-      </c>
       <c r="L56">
-        <v>51695.11941214495</v>
+        <v>663929000000</v>
       </c>
       <c r="M56">
-        <v>12843166</v>
+        <v>12845460</v>
+      </c>
+      <c r="N56">
+        <v>51685.88746529903</v>
       </c>
     </row>
     <row r="57">
@@ -2811,17 +2963,20 @@
         <v>-4779</v>
       </c>
       <c r="J57">
+        <v>120642</v>
+      </c>
+      <c r="K57">
         <v>5359348</v>
       </c>
-      <c r="K57">
-        <v>802592</v>
-      </c>
       <c r="L57">
-        <v>61913.53772358639</v>
+        <v>802592000000</v>
       </c>
       <c r="M57">
         <v>12963110</v>
       </c>
+      <c r="N57">
+        <v>61913.53772358639</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2854,16 +3009,19 @@
         <v>1311</v>
       </c>
       <c r="J58">
+        <v>47280</v>
+      </c>
+      <c r="K58">
         <v>2376667</v>
       </c>
-      <c r="K58">
-        <v>155797</v>
-      </c>
       <c r="L58">
-        <v>26700.84943927137</v>
+        <v>155797000000</v>
       </c>
       <c r="M58">
-        <v>5834908</v>
+        <v>5906013</v>
+      </c>
+      <c r="N58">
+        <v>26379.38656755412</v>
       </c>
     </row>
     <row r="59">
@@ -2897,17 +3055,20 @@
         <v>1226</v>
       </c>
       <c r="J59">
+        <v>49394</v>
+      </c>
+      <c r="K59">
         <v>2585000</v>
       </c>
-      <c r="K59">
-        <v>205325.1</v>
-      </c>
       <c r="L59">
-        <v>33507.36647649386</v>
+        <v>205325100000</v>
       </c>
       <c r="M59">
         <v>6127760</v>
       </c>
+      <c r="N59">
+        <v>33507.36647649386</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2940,16 +3101,19 @@
         <v>-513</v>
       </c>
       <c r="J60">
+        <v>43401</v>
+      </c>
+      <c r="K60">
         <v>2396086</v>
       </c>
-      <c r="K60">
-        <v>284685.8</v>
-      </c>
       <c r="L60">
-        <v>43861.10358315483</v>
+        <v>284685800000</v>
       </c>
       <c r="M60">
-        <v>6490621</v>
+        <v>6491385</v>
+      </c>
+      <c r="N60">
+        <v>43855.9413746065</v>
       </c>
     </row>
     <row r="61">
@@ -2983,17 +3147,20 @@
         <v>91</v>
       </c>
       <c r="J61">
+        <v>43431</v>
+      </c>
+      <c r="K61">
         <v>2670045</v>
       </c>
-      <c r="K61">
-        <v>333163.8</v>
-      </c>
       <c r="L61">
-        <v>50259.09932605966</v>
+        <v>333163800000</v>
       </c>
       <c r="M61">
         <v>6628925</v>
       </c>
+      <c r="N61">
+        <v>50259.09932605966</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3026,16 +3193,19 @@
         <v>788</v>
       </c>
       <c r="J62">
+        <v>31656</v>
+      </c>
+      <c r="K62">
         <v>1139318</v>
       </c>
-      <c r="K62">
-        <v>76315</v>
-      </c>
       <c r="L62">
-        <v>26791.54761165017</v>
+        <v>76315000000</v>
       </c>
       <c r="M62">
-        <v>2848473</v>
+        <v>2880000</v>
+      </c>
+      <c r="N62">
+        <v>26498.26388888889</v>
       </c>
     </row>
     <row r="63">
@@ -3069,17 +3239,20 @@
         <v>3026</v>
       </c>
       <c r="J63">
+        <v>43768</v>
+      </c>
+      <c r="K63">
         <v>1244246</v>
       </c>
-      <c r="K63">
-        <v>94922.60000000001</v>
-      </c>
       <c r="L63">
-        <v>32374.72616786443</v>
+        <v>94922600000</v>
       </c>
       <c r="M63">
         <v>2931997</v>
       </c>
+      <c r="N63">
+        <v>32374.72616786443</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3112,16 +3285,19 @@
         <v>-1157</v>
       </c>
       <c r="J64">
+        <v>32985</v>
+      </c>
+      <c r="K64">
         <v>1247012</v>
       </c>
-      <c r="K64">
-        <v>142497.7</v>
-      </c>
       <c r="L64">
-        <v>46722.3496770204</v>
+        <v>142497700000</v>
       </c>
       <c r="M64">
-        <v>3049883</v>
+        <v>3051473</v>
+      </c>
+      <c r="N64">
+        <v>46698.00453748075</v>
       </c>
     </row>
     <row r="65">
@@ -3155,17 +3331,20 @@
         <v>-610</v>
       </c>
       <c r="J65">
+        <v>30622</v>
+      </c>
+      <c r="K65">
         <v>1335813</v>
       </c>
-      <c r="K65">
-        <v>181471.7</v>
-      </c>
       <c r="L65">
-        <v>57861.53154503222</v>
+        <v>181471700000</v>
       </c>
       <c r="M65">
         <v>3136310</v>
       </c>
+      <c r="N65">
+        <v>57861.53154503222</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3198,16 +3377,19 @@
         <v>1487</v>
       </c>
       <c r="J66">
+        <v>30855</v>
+      </c>
+      <c r="K66">
         <v>992580</v>
       </c>
-      <c r="K66">
-        <v>68014</v>
-      </c>
       <c r="L66">
-        <v>26176.68860694017</v>
+        <v>68014000000</v>
       </c>
       <c r="M66">
-        <v>2598266</v>
+        <v>2614554</v>
+      </c>
+      <c r="N66">
+        <v>26013.61455911792</v>
       </c>
     </row>
     <row r="67">
@@ -3241,17 +3423,20 @@
         <v>4263</v>
       </c>
       <c r="J67">
+        <v>46857</v>
+      </c>
+      <c r="K67">
         <v>1109064</v>
       </c>
-      <c r="K67">
-        <v>88869.7</v>
-      </c>
       <c r="L67">
-        <v>32888.36864703152</v>
+        <v>88869700000</v>
       </c>
       <c r="M67">
         <v>2702162</v>
       </c>
+      <c r="N67">
+        <v>32888.36864703152</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3284,16 +3469,19 @@
         <v>-8353</v>
       </c>
       <c r="J68">
+        <v>40031</v>
+      </c>
+      <c r="K68">
         <v>1124369</v>
       </c>
-      <c r="K68">
-        <v>129235.7</v>
-      </c>
       <c r="L68">
-        <v>45200.44110718884</v>
+        <v>129235700000</v>
       </c>
       <c r="M68">
-        <v>2859169</v>
+        <v>2858835</v>
+      </c>
+      <c r="N68">
+        <v>45205.7219111981</v>
       </c>
     </row>
     <row r="69">
@@ -3327,17 +3515,20 @@
         <v>955</v>
       </c>
       <c r="J69">
+        <v>35366</v>
+      </c>
+      <c r="K69">
         <v>1191932</v>
       </c>
-      <c r="K69">
-        <v>155699</v>
-      </c>
       <c r="L69">
-        <v>53272.26201225373</v>
+        <v>155699000000</v>
       </c>
       <c r="M69">
         <v>2922703</v>
       </c>
+      <c r="N69">
+        <v>53272.26201225373</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3370,16 +3561,19 @@
         <v>-1553</v>
       </c>
       <c r="J70">
+        <v>26385</v>
+      </c>
+      <c r="K70">
         <v>1347665</v>
       </c>
-      <c r="K70">
-        <v>95410</v>
-      </c>
       <c r="L70">
-        <v>24583.54708557038</v>
+        <v>95410000000</v>
       </c>
       <c r="M70">
-        <v>3881051</v>
+        <v>3919535</v>
+      </c>
+      <c r="N70">
+        <v>24342.17324248923</v>
       </c>
     </row>
     <row r="71">
@@ -3413,17 +3607,20 @@
         <v>199</v>
       </c>
       <c r="J71">
+        <v>31116</v>
+      </c>
+      <c r="K71">
         <v>1487755</v>
       </c>
-      <c r="K71">
-        <v>117767.9</v>
-      </c>
       <c r="L71">
-        <v>28948.88858080318</v>
+        <v>117767900000</v>
       </c>
       <c r="M71">
         <v>4068132</v>
       </c>
+      <c r="N71">
+        <v>28948.88858080318</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3456,16 +3653,19 @@
         <v>-1905</v>
       </c>
       <c r="J72">
+        <v>31805</v>
+      </c>
+      <c r="K72">
         <v>1441204</v>
       </c>
-      <c r="K72">
-        <v>166656.3</v>
-      </c>
       <c r="L72">
-        <v>38344.70784807004</v>
+        <v>166656300000</v>
       </c>
       <c r="M72">
-        <v>4346266</v>
+        <v>4349159</v>
+      </c>
+      <c r="N72">
+        <v>38319.20148240154</v>
       </c>
     </row>
     <row r="73">
@@ -3499,17 +3699,20 @@
         <v>397</v>
       </c>
       <c r="J73">
+        <v>36255</v>
+      </c>
+      <c r="K73">
         <v>1577256</v>
       </c>
-      <c r="K73">
-        <v>194621.2</v>
-      </c>
       <c r="L73">
-        <v>43796.33726077226</v>
+        <v>194621200000</v>
       </c>
       <c r="M73">
         <v>4443778</v>
       </c>
+      <c r="N73">
+        <v>43796.33726077226</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3542,16 +3745,19 @@
         <v>-1048</v>
       </c>
       <c r="J74">
+        <v>25293</v>
+      </c>
+      <c r="K74">
         <v>1441126</v>
       </c>
-      <c r="K74">
-        <v>121143</v>
-      </c>
       <c r="L74">
-        <v>27921.09179505772</v>
+        <v>121143000000</v>
       </c>
       <c r="M74">
-        <v>4338763</v>
+        <v>4398877</v>
+      </c>
+      <c r="N74">
+        <v>27539.52883883773</v>
       </c>
     </row>
     <row r="75">
@@ -3585,17 +3791,20 @@
         <v>1313</v>
       </c>
       <c r="J75">
+        <v>31181</v>
+      </c>
+      <c r="K75">
         <v>1587050</v>
       </c>
-      <c r="K75">
-        <v>138204.3</v>
-      </c>
       <c r="L75">
-        <v>30863.81375094213</v>
+        <v>138204300000</v>
       </c>
       <c r="M75">
         <v>4477875</v>
       </c>
+      <c r="N75">
+        <v>30863.81375094213</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3628,16 +3837,19 @@
         <v>-4009</v>
       </c>
       <c r="J76">
+        <v>24141</v>
+      </c>
+      <c r="K76">
         <v>1591037</v>
       </c>
-      <c r="K76">
-        <v>226555.6</v>
-      </c>
       <c r="L76">
-        <v>49855.68505805606</v>
+        <v>226555600000</v>
       </c>
       <c r="M76">
-        <v>4544228</v>
+        <v>4544804</v>
+      </c>
+      <c r="N76">
+        <v>49849.36644132508</v>
       </c>
     </row>
     <row r="77">
@@ -3671,17 +3883,20 @@
         <v>467</v>
       </c>
       <c r="J77">
+        <v>26296</v>
+      </c>
+      <c r="K77">
         <v>1715196</v>
       </c>
-      <c r="K77">
-        <v>234324.2</v>
-      </c>
       <c r="L77">
-        <v>50170.57948207384</v>
+        <v>234324200000</v>
       </c>
       <c r="M77">
         <v>4670550</v>
       </c>
+      <c r="N77">
+        <v>50170.57948207384</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3714,16 +3929,19 @@
         <v>293</v>
       </c>
       <c r="J78">
+        <v>9413</v>
+      </c>
+      <c r="K78">
         <v>432687</v>
       </c>
-      <c r="K78">
-        <v>28894</v>
-      </c>
       <c r="L78">
-        <v>23274.65934611208</v>
+        <v>28894000000</v>
       </c>
       <c r="M78">
-        <v>1241436</v>
+        <v>1249060</v>
+      </c>
+      <c r="N78">
+        <v>23132.59571197541</v>
       </c>
     </row>
     <row r="79">
@@ -3757,17 +3975,20 @@
         <v>442</v>
       </c>
       <c r="J79">
+        <v>12115</v>
+      </c>
+      <c r="K79">
         <v>495102</v>
       </c>
-      <c r="K79">
-        <v>38925.7</v>
-      </c>
       <c r="L79">
-        <v>30276.06922964442</v>
+        <v>38925700000</v>
       </c>
       <c r="M79">
         <v>1285692</v>
       </c>
+      <c r="N79">
+        <v>30276.06922964442</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3800,16 +4021,19 @@
         <v>-1836</v>
       </c>
       <c r="J80">
+        <v>10851</v>
+      </c>
+      <c r="K80">
         <v>479840</v>
       </c>
-      <c r="K80">
-        <v>52802.5</v>
-      </c>
       <c r="L80">
-        <v>39773.88711831493</v>
+        <v>52802500000</v>
       </c>
       <c r="M80">
-        <v>1327567</v>
+        <v>1327967</v>
+      </c>
+      <c r="N80">
+        <v>39761.90673412818</v>
       </c>
     </row>
     <row r="81">
@@ -3843,17 +4067,20 @@
         <v>-27</v>
       </c>
       <c r="J81">
+        <v>10885</v>
+      </c>
+      <c r="K81">
         <v>499674</v>
       </c>
-      <c r="K81">
-        <v>58755.8</v>
-      </c>
       <c r="L81">
-        <v>43986.53059513328</v>
+        <v>58755800000</v>
       </c>
       <c r="M81">
         <v>1335768</v>
       </c>
+      <c r="N81">
+        <v>43986.53059513328</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3886,16 +4113,19 @@
         <v>1184</v>
       </c>
       <c r="J82">
+        <v>54482</v>
+      </c>
+      <c r="K82">
         <v>1803871</v>
       </c>
-      <c r="K82">
-        <v>143190</v>
-      </c>
       <c r="L82">
-        <v>28314.41157871383</v>
+        <v>143190000000</v>
       </c>
       <c r="M82">
-        <v>5057142</v>
+        <v>5111986</v>
+      </c>
+      <c r="N82">
+        <v>28010.64009173734</v>
       </c>
     </row>
     <row r="83">
@@ -3929,17 +4159,20 @@
         <v>-1426</v>
       </c>
       <c r="J83">
+        <v>72232</v>
+      </c>
+      <c r="K83">
         <v>2077928</v>
       </c>
-      <c r="K83">
-        <v>205276</v>
-      </c>
       <c r="L83">
-        <v>38193.07937888894</v>
+        <v>205276000000</v>
       </c>
       <c r="M83">
         <v>5374691</v>
       </c>
+      <c r="N83">
+        <v>38193.07937888894</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3972,16 +4205,19 @@
         <v>-1063</v>
       </c>
       <c r="J84">
+        <v>54660</v>
+      </c>
+      <c r="K84">
         <v>2071715</v>
       </c>
-      <c r="K84">
-        <v>313930.5</v>
-      </c>
       <c r="L84">
-        <v>54257.08203032778</v>
+        <v>313930500000</v>
       </c>
       <c r="M84">
-        <v>5785982</v>
+        <v>5791715</v>
+      </c>
+      <c r="N84">
+        <v>54203.37499341732</v>
       </c>
     </row>
     <row r="85">
@@ -4015,17 +4251,20 @@
         <v>-2689</v>
       </c>
       <c r="J85">
+        <v>50741</v>
+      </c>
+      <c r="K85">
         <v>2232658</v>
       </c>
-      <c r="K85">
-        <v>367314.1</v>
-      </c>
       <c r="L85">
-        <v>60710.26464890881</v>
+        <v>367314100000</v>
       </c>
       <c r="M85">
         <v>6050280</v>
       </c>
+      <c r="N85">
+        <v>60710.26464890881</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4058,16 +4297,19 @@
         <v>4632</v>
       </c>
       <c r="J86">
+        <v>103985</v>
+      </c>
+      <c r="K86">
         <v>2708736</v>
       </c>
-      <c r="K86">
-        <v>208591</v>
-      </c>
       <c r="L86">
-        <v>34277.32604944331</v>
+        <v>208591000000</v>
       </c>
       <c r="M86">
-        <v>6085393</v>
+        <v>6179756</v>
+      </c>
+      <c r="N86">
+        <v>33753.92167587199</v>
       </c>
     </row>
     <row r="87">
@@ -4101,17 +4343,20 @@
         <v>3773</v>
       </c>
       <c r="J87">
+        <v>137939</v>
+      </c>
+      <c r="K87">
         <v>3076232</v>
       </c>
-      <c r="K87">
-        <v>294876.4</v>
-      </c>
       <c r="L87">
-        <v>46091.47694288232</v>
+        <v>294876400000</v>
       </c>
       <c r="M87">
         <v>6397634</v>
       </c>
+      <c r="N87">
+        <v>46091.47694288232</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4144,16 +4389,19 @@
         <v>-2198</v>
       </c>
       <c r="J88">
+        <v>101852</v>
+      </c>
+      <c r="K88">
         <v>2929906</v>
       </c>
-      <c r="K88">
-        <v>409270</v>
-      </c>
       <c r="L88">
-        <v>62414.84621458922</v>
+        <v>409270000000</v>
       </c>
       <c r="M88">
-        <v>6557254</v>
+        <v>6569724</v>
+      </c>
+      <c r="N88">
+        <v>62296.37652966852</v>
       </c>
     </row>
     <row r="89">
@@ -4187,17 +4435,20 @@
         <v>5000</v>
       </c>
       <c r="J89">
+        <v>115280</v>
+      </c>
+      <c r="K89">
         <v>3170450</v>
       </c>
-      <c r="K89">
-        <v>497767</v>
-      </c>
       <c r="L89">
-        <v>72490.39962799969</v>
+        <v>497767000000</v>
       </c>
       <c r="M89">
         <v>6866661</v>
       </c>
+      <c r="N89">
+        <v>72490.39962799969</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4230,16 +4481,19 @@
         <v>2274</v>
       </c>
       <c r="J90">
+        <v>88150</v>
+      </c>
+      <c r="K90">
         <v>3659943</v>
       </c>
-      <c r="K90">
-        <v>263336</v>
-      </c>
       <c r="L90">
-        <v>27038.81557222864</v>
+        <v>263336000000</v>
       </c>
       <c r="M90">
-        <v>9739184</v>
+        <v>9758645</v>
+      </c>
+      <c r="N90">
+        <v>26984.89390688974</v>
       </c>
     </row>
     <row r="91">
@@ -4273,17 +4527,20 @@
         <v>583</v>
       </c>
       <c r="J91">
+        <v>101086</v>
+      </c>
+      <c r="K91">
         <v>3963812</v>
       </c>
-      <c r="K91">
-        <v>349127.5</v>
-      </c>
       <c r="L91">
-        <v>34943.78007670811</v>
+        <v>349127500000</v>
       </c>
       <c r="M91">
         <v>9991120</v>
       </c>
+      <c r="N91">
+        <v>34943.78007670811</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4316,16 +4573,19 @@
         <v>-5104</v>
       </c>
       <c r="J92">
+        <v>69908</v>
+      </c>
+      <c r="K92">
         <v>3280450</v>
       </c>
-      <c r="K92">
-        <v>393179.6</v>
-      </c>
       <c r="L92">
-        <v>39805.28012242683</v>
+        <v>393179600000</v>
       </c>
       <c r="M92">
-        <v>9877574</v>
+        <v>9880111</v>
+      </c>
+      <c r="N92">
+        <v>39795.05898263693</v>
       </c>
     </row>
     <row r="93">
@@ -4359,17 +4619,20 @@
         <v>-241</v>
       </c>
       <c r="J93">
+        <v>69433</v>
+      </c>
+      <c r="K93">
         <v>3717839</v>
       </c>
-      <c r="K93">
-        <v>479222.7</v>
-      </c>
       <c r="L93">
-        <v>47982.49763102646</v>
+        <v>479222700000</v>
       </c>
       <c r="M93">
         <v>9987448</v>
       </c>
+      <c r="N93">
+        <v>47982.49763102646</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4402,16 +4665,19 @@
         <v>1305</v>
       </c>
       <c r="J94">
+        <v>56416</v>
+      </c>
+      <c r="K94">
         <v>2082302</v>
       </c>
-      <c r="K94">
-        <v>141573</v>
-      </c>
       <c r="L94">
-        <v>30460.7223795394</v>
+        <v>141573000000</v>
       </c>
       <c r="M94">
-        <v>4647723</v>
+        <v>4712827</v>
+      </c>
+      <c r="N94">
+        <v>30039.93144666672</v>
       </c>
     </row>
     <row r="95">
@@ -4445,17 +4711,20 @@
         <v>3978</v>
       </c>
       <c r="J95">
+        <v>70510</v>
+      </c>
+      <c r="K95">
         <v>2376080</v>
       </c>
-      <c r="K95">
-        <v>196869.4</v>
-      </c>
       <c r="L95">
-        <v>39509.82540726131</v>
+        <v>196869400000</v>
       </c>
       <c r="M95">
         <v>4982796</v>
       </c>
+      <c r="N95">
+        <v>39509.82540726131</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4488,16 +4757,19 @@
         <v>-3521</v>
       </c>
       <c r="J96">
+        <v>61524</v>
+      </c>
+      <c r="K96">
         <v>2350302</v>
       </c>
-      <c r="K96">
-        <v>274649.2</v>
-      </c>
       <c r="L96">
-        <v>51717.32525085753</v>
+        <v>274649200000</v>
       </c>
       <c r="M96">
-        <v>5310584</v>
+        <v>5312197</v>
+      </c>
+      <c r="N96">
+        <v>51701.62175837982</v>
       </c>
     </row>
     <row r="97">
@@ -4531,17 +4803,20 @@
         <v>-3840</v>
       </c>
       <c r="J97">
+        <v>58126</v>
+      </c>
+      <c r="K97">
         <v>2578964</v>
       </c>
-      <c r="K97">
-        <v>336762</v>
-      </c>
       <c r="L97">
-        <v>61111.75330858221</v>
+        <v>336762000000</v>
       </c>
       <c r="M97">
         <v>5510593</v>
       </c>
+      <c r="N97">
+        <v>61111.75330858221</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4574,16 +4849,19 @@
         <v>347</v>
       </c>
       <c r="J98">
+        <v>13946</v>
+      </c>
+      <c r="K98">
         <v>854750</v>
       </c>
-      <c r="K98">
-        <v>56406</v>
-      </c>
       <c r="L98">
-        <v>20814.59818998681</v>
+        <v>56406000000</v>
       </c>
       <c r="M98">
-        <v>2709925</v>
+        <v>2748085</v>
+      </c>
+      <c r="N98">
+        <v>20525.56598504049</v>
       </c>
     </row>
     <row r="99">
@@ -4617,17 +4895,20 @@
         <v>605</v>
       </c>
       <c r="J99">
+        <v>17640</v>
+      </c>
+      <c r="K99">
         <v>921124</v>
       </c>
-      <c r="K99">
-        <v>67750.2</v>
-      </c>
       <c r="L99">
-        <v>23747.05309580041</v>
+        <v>67750200000</v>
       </c>
       <c r="M99">
         <v>2852994</v>
       </c>
+      <c r="N99">
+        <v>23747.05309580041</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4660,16 +4941,19 @@
         <v>-1062</v>
       </c>
       <c r="J100">
+        <v>12963</v>
+      </c>
+      <c r="K100">
         <v>881925</v>
       </c>
-      <c r="K100">
-        <v>94788.3</v>
-      </c>
       <c r="L100">
-        <v>31914.86567839582</v>
+        <v>94788300000</v>
       </c>
       <c r="M100">
-        <v>2970036</v>
+        <v>2970367</v>
+      </c>
+      <c r="N100">
+        <v>31911.30927592449</v>
       </c>
     </row>
     <row r="101">
@@ -4681,9 +4965,6 @@
       <c r="B101">
         <v>2015</v>
       </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
       <c r="D101">
         <v>138</v>
       </c>
@@ -4703,17 +4984,20 @@
         <v>420</v>
       </c>
       <c r="J101">
+        <v>13795</v>
+      </c>
+      <c r="K101">
         <v>925731</v>
       </c>
-      <c r="K101">
-        <v>106623.9</v>
-      </c>
       <c r="L101">
-        <v>35719.89949748744</v>
+        <v>106623900000</v>
       </c>
       <c r="M101">
         <v>2985000</v>
       </c>
+      <c r="N101">
+        <v>35719.89949748744</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4746,16 +5030,19 @@
         <v>4382</v>
       </c>
       <c r="J102">
+        <v>71709</v>
+      </c>
+      <c r="K102">
         <v>2141428</v>
       </c>
-      <c r="K102">
-        <v>145123</v>
-      </c>
       <c r="L102">
-        <v>27035.40014247689</v>
+        <v>145123000000</v>
       </c>
       <c r="M102">
-        <v>5367888</v>
+        <v>5431553</v>
+      </c>
+      <c r="N102">
+        <v>26718.50942078628</v>
       </c>
     </row>
     <row r="103">
@@ -4789,17 +5076,20 @@
         <v>4037</v>
       </c>
       <c r="J103">
+        <v>86073</v>
+      </c>
+      <c r="K103">
         <v>2368690</v>
       </c>
-      <c r="K103">
-        <v>190388.7</v>
-      </c>
       <c r="L103">
-        <v>33750.02791987864</v>
+        <v>190388700000</v>
       </c>
       <c r="M103">
         <v>5641142</v>
       </c>
+      <c r="N103">
+        <v>33750.02791987864</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4810,9 +5100,6 @@
       <c r="B104">
         <v>2010</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
       <c r="D104">
         <v>975</v>
       </c>
@@ -4832,16 +5119,19 @@
         <v>-3874</v>
       </c>
       <c r="J104">
+        <v>60475</v>
+      </c>
+      <c r="K104">
         <v>2277280</v>
       </c>
-      <c r="K104">
-        <v>262013.4</v>
-      </c>
       <c r="L104">
-        <v>43696.34858963906</v>
+        <v>262013400000</v>
       </c>
       <c r="M104">
-        <v>5996231</v>
+        <v>5996167</v>
+      </c>
+      <c r="N104">
+        <v>43696.81498197098</v>
       </c>
     </row>
     <row r="105">
@@ -4875,17 +5165,20 @@
         <v>895</v>
       </c>
       <c r="J105">
+        <v>58049</v>
+      </c>
+      <c r="K105">
         <v>2446128</v>
       </c>
-      <c r="K105">
-        <v>299597.7</v>
-      </c>
       <c r="L105">
-        <v>49299.8089864566</v>
+        <v>299597700000</v>
       </c>
       <c r="M105">
         <v>6077056</v>
       </c>
+      <c r="N105">
+        <v>49299.8089864566</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4896,9 +5189,6 @@
       <c r="B106">
         <v>1996</v>
       </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
       <c r="D106">
         <v>110</v>
       </c>
@@ -4918,16 +5208,19 @@
         <v>-58</v>
       </c>
       <c r="J106">
+        <v>6455</v>
+      </c>
+      <c r="K106">
         <v>263451</v>
       </c>
-      <c r="K106">
-        <v>18509</v>
-      </c>
       <c r="L106">
-        <v>21113.18464711358</v>
+        <v>18509000000</v>
       </c>
       <c r="M106">
-        <v>876656</v>
+        <v>886254</v>
+      </c>
+      <c r="N106">
+        <v>20884.53197390364</v>
       </c>
     </row>
     <row r="107">
@@ -4961,17 +5254,20 @@
         <v>1681</v>
       </c>
       <c r="J107">
+        <v>9845</v>
+      </c>
+      <c r="K107">
         <v>303402</v>
       </c>
-      <c r="K107">
-        <v>22798</v>
-      </c>
       <c r="L107">
-        <v>25136.69275746146</v>
+        <v>22798000000</v>
       </c>
       <c r="M107">
         <v>906961</v>
       </c>
+      <c r="N107">
+        <v>25136.69275746146</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5004,16 +5300,19 @@
         <v>208</v>
       </c>
       <c r="J108">
+        <v>9185</v>
+      </c>
+      <c r="K108">
         <v>337333</v>
       </c>
-      <c r="K108">
-        <v>38080.3</v>
-      </c>
       <c r="L108">
-        <v>38430.09068541868</v>
+        <v>38080300000</v>
       </c>
       <c r="M108">
-        <v>990898</v>
+        <v>990874</v>
+      </c>
+      <c r="N108">
+        <v>38431.02150222934</v>
       </c>
     </row>
     <row r="109">
@@ -5047,17 +5346,20 @@
         <v>-547</v>
       </c>
       <c r="J109">
+        <v>8707</v>
+      </c>
+      <c r="K109">
         <v>371453</v>
       </c>
-      <c r="K109">
-        <v>46542.4</v>
-      </c>
       <c r="L109">
-        <v>44988.32335792388</v>
+        <v>46542400000</v>
       </c>
       <c r="M109">
         <v>1034544</v>
       </c>
+      <c r="N109">
+        <v>44988.32335792388</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5090,16 +5392,19 @@
         <v>200</v>
       </c>
       <c r="J110">
+        <v>25870</v>
+      </c>
+      <c r="K110">
         <v>673036</v>
       </c>
-      <c r="K110">
-        <v>47187</v>
-      </c>
       <c r="L110">
-        <v>28638.84898373873</v>
+        <v>47187000000</v>
       </c>
       <c r="M110">
-        <v>1647657</v>
+        <v>1673740</v>
+      </c>
+      <c r="N110">
+        <v>28192.55081434393</v>
       </c>
     </row>
     <row r="111">
@@ -5133,17 +5438,20 @@
         <v>489</v>
       </c>
       <c r="J111">
+        <v>26417</v>
+      </c>
+      <c r="K111">
         <v>741344</v>
       </c>
-      <c r="K111">
-        <v>59634.3</v>
-      </c>
       <c r="L111">
-        <v>34674.41081591501</v>
+        <v>59634300000</v>
       </c>
       <c r="M111">
         <v>1719836</v>
       </c>
+      <c r="N111">
+        <v>34674.41081591501</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5176,16 +5484,19 @@
         <v>-174</v>
       </c>
       <c r="J112">
+        <v>20734</v>
+      </c>
+      <c r="K112">
         <v>769869</v>
       </c>
-      <c r="K112">
-        <v>91940.7</v>
-      </c>
       <c r="L112">
-        <v>50229.04466657816</v>
+        <v>91940700000</v>
       </c>
       <c r="M112">
-        <v>1830429</v>
+        <v>1830194</v>
+      </c>
+      <c r="N112">
+        <v>50235.49416072832</v>
       </c>
     </row>
     <row r="113">
@@ -5219,17 +5530,20 @@
         <v>1057</v>
       </c>
       <c r="J113">
+        <v>20890</v>
+      </c>
+      <c r="K113">
         <v>808214</v>
       </c>
-      <c r="K113">
-        <v>117402.3</v>
-      </c>
       <c r="L113">
-        <v>61636.07498243879</v>
+        <v>117402300000</v>
       </c>
       <c r="M113">
         <v>1904766</v>
       </c>
+      <c r="N113">
+        <v>61636.07498243879</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5240,9 +5554,6 @@
       <c r="B114">
         <v>1996</v>
       </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
       <c r="D114">
         <v>195</v>
       </c>
@@ -5262,16 +5573,19 @@
         <v>-957</v>
       </c>
       <c r="J114">
+        <v>9892</v>
+      </c>
+      <c r="K114">
         <v>701686</v>
       </c>
-      <c r="K114">
-        <v>53687</v>
-      </c>
       <c r="L114">
-        <v>33628.44164271808</v>
+        <v>53687000000</v>
       </c>
       <c r="M114">
-        <v>1596476</v>
+        <v>1666320</v>
+      </c>
+      <c r="N114">
+        <v>32218.90153151856</v>
       </c>
     </row>
     <row r="115">
@@ -5305,17 +5619,20 @@
         <v>29</v>
       </c>
       <c r="J115">
+        <v>21174</v>
+      </c>
+      <c r="K115">
         <v>938445</v>
       </c>
-      <c r="K115">
-        <v>80968.60000000001</v>
-      </c>
       <c r="L115">
-        <v>38585.89334058966</v>
+        <v>80968600000</v>
       </c>
       <c r="M115">
         <v>2098399</v>
       </c>
+      <c r="N115">
+        <v>38585.89334058966</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5326,9 +5643,6 @@
       <c r="B116">
         <v>2010</v>
       </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
       <c r="D116">
         <v>540</v>
       </c>
@@ -5348,16 +5662,19 @@
         <v>-1701</v>
       </c>
       <c r="J116">
+        <v>15784</v>
+      </c>
+      <c r="K116">
         <v>1000394</v>
       </c>
-      <c r="K116">
-        <v>125149</v>
-      </c>
       <c r="L116">
-        <v>46271.92804075364</v>
+        <v>125149000000</v>
       </c>
       <c r="M116">
-        <v>2704642</v>
+        <v>2701888</v>
+      </c>
+      <c r="N116">
+        <v>46319.09242722127</v>
       </c>
     </row>
     <row r="117">
@@ -5391,17 +5708,20 @@
         <v>127</v>
       </c>
       <c r="J117">
+        <v>16756</v>
+      </c>
+      <c r="K117">
         <v>1126385</v>
       </c>
-      <c r="K117">
-        <v>145786.8</v>
-      </c>
       <c r="L117">
-        <v>51046.04854505589</v>
+        <v>145786800000</v>
       </c>
       <c r="M117">
         <v>2855986</v>
       </c>
+      <c r="N117">
+        <v>51046.04854505589</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5434,16 +5754,19 @@
         <v>892</v>
       </c>
       <c r="J118">
+        <v>11925</v>
+      </c>
+      <c r="K118">
         <v>478730</v>
       </c>
-      <c r="K118">
-        <v>34108</v>
-      </c>
       <c r="L118">
-        <v>29383.99404532172</v>
+        <v>34108000000</v>
       </c>
       <c r="M118">
-        <v>1160768</v>
+        <v>1174719</v>
+      </c>
+      <c r="N118">
+        <v>29035.0288026328</v>
       </c>
     </row>
     <row r="119">
@@ -5477,17 +5800,20 @@
         <v>1425</v>
       </c>
       <c r="J119">
+        <v>15468</v>
+      </c>
+      <c r="K119">
         <v>558508</v>
       </c>
-      <c r="K119">
-        <v>47037.3</v>
-      </c>
       <c r="L119">
-        <v>37464.48674131852</v>
+        <v>47037300000</v>
       </c>
       <c r="M119">
         <v>1255517</v>
       </c>
+      <c r="N119">
+        <v>37464.48674131852</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5520,16 +5846,19 @@
         <v>-2496</v>
       </c>
       <c r="J120">
+        <v>12724</v>
+      </c>
+      <c r="K120">
         <v>562215</v>
       </c>
-      <c r="K120">
-        <v>65310.8</v>
-      </c>
       <c r="L120">
-        <v>49599.66098579922</v>
+        <v>65310800000</v>
       </c>
       <c r="M120">
-        <v>1316759</v>
+        <v>1317105</v>
+      </c>
+      <c r="N120">
+        <v>49586.63128604022</v>
       </c>
     </row>
     <row r="121">
@@ -5563,17 +5892,20 @@
         <v>-247</v>
       </c>
       <c r="J121">
+        <v>14070</v>
+      </c>
+      <c r="K121">
         <v>577604</v>
       </c>
-      <c r="K121">
-        <v>77385.8</v>
-      </c>
       <c r="L121">
-        <v>57588.83256286074</v>
+        <v>77385800000</v>
       </c>
       <c r="M121">
         <v>1343764</v>
       </c>
+      <c r="N121">
+        <v>57588.83256286074</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5606,16 +5938,19 @@
         <v>1394</v>
       </c>
       <c r="J122">
+        <v>116864</v>
+      </c>
+      <c r="K122">
         <v>3166940</v>
       </c>
-      <c r="K122">
-        <v>276377</v>
-      </c>
       <c r="L122">
-        <v>34505.61474546121</v>
+        <v>276377000000</v>
       </c>
       <c r="M122">
-        <v>8009624</v>
+        <v>8149596</v>
+      </c>
+      <c r="N122">
+        <v>33912.96942817779</v>
       </c>
     </row>
     <row r="123">
@@ -5649,17 +5984,20 @@
         <v>-7288</v>
       </c>
       <c r="J123">
+        <v>122299</v>
+      </c>
+      <c r="K123">
         <v>3602747</v>
       </c>
-      <c r="K123">
-        <v>372819.2</v>
-      </c>
       <c r="L123">
-        <v>43898.93356283318</v>
+        <v>372819200000</v>
       </c>
       <c r="M123">
         <v>8492671</v>
       </c>
+      <c r="N123">
+        <v>43898.93356283318</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5692,16 +6030,19 @@
         <v>-6479</v>
       </c>
       <c r="J124">
+        <v>98415</v>
+      </c>
+      <c r="K124">
         <v>3354990</v>
       </c>
-      <c r="K124">
-        <v>491229</v>
-      </c>
       <c r="L124">
-        <v>55811.17757359324</v>
+        <v>491229000000</v>
       </c>
       <c r="M124">
-        <v>8801624</v>
+        <v>8809368</v>
+      </c>
+      <c r="N124">
+        <v>55762.11596564022</v>
       </c>
     </row>
     <row r="125">
@@ -5735,17 +6076,20 @@
         <v>-5748</v>
       </c>
       <c r="J125">
+        <v>87125</v>
+      </c>
+      <c r="K125">
         <v>3544448</v>
       </c>
-      <c r="K125">
-        <v>565807.7</v>
-      </c>
       <c r="L125">
-        <v>62318.99046812181</v>
+        <v>565807700000</v>
       </c>
       <c r="M125">
         <v>9079218</v>
       </c>
+      <c r="N125">
+        <v>62318.99046812181</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5778,16 +6122,19 @@
         <v>702</v>
       </c>
       <c r="J126">
+        <v>11751</v>
+      </c>
+      <c r="K126">
         <v>506906</v>
       </c>
-      <c r="K126">
-        <v>42698</v>
-      </c>
       <c r="L126">
-        <v>25025.92091790234</v>
+        <v>42698000000</v>
       </c>
       <c r="M126">
-        <v>1706151</v>
+        <v>1752326</v>
+      </c>
+      <c r="N126">
+        <v>24366.4706224755</v>
       </c>
     </row>
     <row r="127">
@@ -5821,17 +6168,20 @@
         <v>1039</v>
       </c>
       <c r="J127">
+        <v>15763</v>
+      </c>
+      <c r="K127">
         <v>553491</v>
       </c>
-      <c r="K127">
-        <v>55660.2</v>
-      </c>
       <c r="L127">
-        <v>30387.34720394827</v>
+        <v>55660200000</v>
       </c>
       <c r="M127">
         <v>1831690</v>
       </c>
+      <c r="N127">
+        <v>30387.34720394827</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5864,16 +6214,19 @@
         <v>-572</v>
       </c>
       <c r="J128">
+        <v>13068</v>
+      </c>
+      <c r="K128">
         <v>596219</v>
       </c>
-      <c r="K128">
-        <v>84862.60000000001</v>
-      </c>
       <c r="L128">
-        <v>41077.15065161874</v>
+        <v>84862600000</v>
       </c>
       <c r="M128">
-        <v>2065932</v>
+        <v>2064898</v>
+      </c>
+      <c r="N128">
+        <v>41097.72008108875</v>
       </c>
     </row>
     <row r="129">
@@ -5907,17 +6260,20 @@
         <v>-48</v>
       </c>
       <c r="J129">
+        <v>11656</v>
+      </c>
+      <c r="K129">
         <v>626987</v>
       </c>
-      <c r="K129">
-        <v>90779.39999999999</v>
-      </c>
       <c r="L129">
-        <v>43309.62531535417</v>
+        <v>90779400000</v>
       </c>
       <c r="M129">
         <v>2096056</v>
       </c>
+      <c r="N129">
+        <v>43309.62531535417</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5950,16 +6306,19 @@
         <v>9541</v>
       </c>
       <c r="J130">
+        <v>259596</v>
+      </c>
+      <c r="K130">
         <v>6594081</v>
       </c>
-      <c r="K130">
-        <v>613287</v>
-      </c>
       <c r="L130">
-        <v>33801.4545460558</v>
+        <v>613287000000</v>
       </c>
       <c r="M130">
-        <v>18143805</v>
+        <v>18588460</v>
+      </c>
+      <c r="N130">
+        <v>32992.88913659335</v>
       </c>
     </row>
     <row r="131">
@@ -5993,17 +6352,20 @@
         <v>10457</v>
       </c>
       <c r="J131">
+        <v>307699</v>
+      </c>
+      <c r="K131">
         <v>7255853</v>
       </c>
-      <c r="K131">
-        <v>876285.2</v>
-      </c>
       <c r="L131">
-        <v>45920.06702566987</v>
+        <v>876285200000</v>
       </c>
       <c r="M131">
         <v>19082838</v>
       </c>
+      <c r="N131">
+        <v>45920.06702566987</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6036,16 +6398,19 @@
         <v>-10067</v>
       </c>
       <c r="J132">
+        <v>269358</v>
+      </c>
+      <c r="K132">
         <v>7228632</v>
       </c>
-      <c r="K132">
-        <v>1217748</v>
-      </c>
       <c r="L132">
-        <v>62795.49447581804</v>
+        <v>1217748000000</v>
       </c>
       <c r="M132">
-        <v>19392283</v>
+        <v>19420354</v>
+      </c>
+      <c r="N132">
+        <v>62704.7272155801</v>
       </c>
     </row>
     <row r="133">
@@ -6079,17 +6444,20 @@
         <v>5494</v>
       </c>
       <c r="J133">
+        <v>287247</v>
+      </c>
+      <c r="K133">
         <v>7955728</v>
       </c>
-      <c r="K133">
-        <v>1498474.7</v>
-      </c>
       <c r="L133">
-        <v>74599.1429392001</v>
+        <v>1498474700000</v>
       </c>
       <c r="M133">
         <v>20087023</v>
       </c>
+      <c r="N133">
+        <v>74599.1429392001</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6122,16 +6490,19 @@
         <v>941</v>
       </c>
       <c r="J134">
+        <v>58405</v>
+      </c>
+      <c r="K134">
         <v>3016583</v>
       </c>
-      <c r="K134">
-        <v>204229</v>
-      </c>
       <c r="L134">
-        <v>27947.25752080899</v>
+        <v>204229000000</v>
       </c>
       <c r="M134">
-        <v>7307658</v>
+        <v>7500670</v>
+      </c>
+      <c r="N134">
+        <v>27228.10095631457</v>
       </c>
     </row>
     <row r="135">
@@ -6165,17 +6536,20 @@
         <v>3848</v>
       </c>
       <c r="J135">
+        <v>81817</v>
+      </c>
+      <c r="K135">
         <v>3436619</v>
       </c>
-      <c r="K135">
-        <v>287317.1</v>
-      </c>
       <c r="L135">
-        <v>34995.472661673</v>
+        <v>287317100000</v>
       </c>
       <c r="M135">
         <v>8210122</v>
       </c>
+      <c r="N135">
+        <v>34995.472661673</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6208,16 +6582,19 @@
         <v>-3226</v>
       </c>
       <c r="J136">
+        <v>74443</v>
+      </c>
+      <c r="K136">
         <v>3220171</v>
       </c>
-      <c r="K136">
-        <v>422282.2</v>
-      </c>
       <c r="L136">
-        <v>44164.58070954545</v>
+        <v>422282200000</v>
       </c>
       <c r="M136">
-        <v>9561558</v>
+        <v>9571037</v>
+      </c>
+      <c r="N136">
+        <v>44120.84082424924</v>
       </c>
     </row>
     <row r="137">
@@ -6251,17 +6628,20 @@
         <v>-552</v>
       </c>
       <c r="J137">
+        <v>80372</v>
+      </c>
+      <c r="K137">
         <v>3557965</v>
       </c>
-      <c r="K137">
-        <v>508672.4</v>
-      </c>
       <c r="L137">
-        <v>51058.89466702213</v>
+        <v>508672400000</v>
       </c>
       <c r="M137">
         <v>9962464</v>
       </c>
+      <c r="N137">
+        <v>51058.89466702213</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6294,16 +6674,19 @@
         <v>239</v>
       </c>
       <c r="J138">
+        <v>6195</v>
+      </c>
+      <c r="K138">
         <v>232042</v>
       </c>
-      <c r="K138">
-        <v>15701</v>
-      </c>
       <c r="L138">
-        <v>24423.74521278416</v>
+        <v>15701000000</v>
       </c>
       <c r="M138">
-        <v>642858</v>
+        <v>650382</v>
+      </c>
+      <c r="N138">
+        <v>24141.19701959771</v>
       </c>
     </row>
     <row r="139">
@@ -6337,17 +6720,20 @@
         <v>682</v>
       </c>
       <c r="J139">
+        <v>8250</v>
+      </c>
+      <c r="K139">
         <v>257432</v>
       </c>
-      <c r="K139">
-        <v>18976.9</v>
-      </c>
       <c r="L139">
-        <v>29694.92787867218</v>
+        <v>18976900000</v>
       </c>
       <c r="M139">
         <v>639062</v>
       </c>
+      <c r="N139">
+        <v>29694.92787867218</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6380,16 +6766,19 @@
         <v>-331</v>
       </c>
       <c r="J140">
+        <v>7289</v>
+      </c>
+      <c r="K140">
         <v>296315</v>
       </c>
-      <c r="K140">
-        <v>35651.8</v>
-      </c>
       <c r="L140">
-        <v>52856.71290839571</v>
+        <v>35651800000</v>
       </c>
       <c r="M140">
-        <v>674499</v>
+        <v>675097</v>
+      </c>
+      <c r="N140">
+        <v>52809.89250433641</v>
       </c>
     </row>
     <row r="141">
@@ -6423,17 +6812,20 @@
         <v>57</v>
       </c>
       <c r="J141">
+        <v>7055</v>
+      </c>
+      <c r="K141">
         <v>365046</v>
       </c>
-      <c r="K141">
-        <v>56952.2</v>
-      </c>
       <c r="L141">
-        <v>74660.66432970554</v>
+        <v>56952200000</v>
       </c>
       <c r="M141">
         <v>762814</v>
       </c>
+      <c r="N141">
+        <v>74660.66432970554</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6466,16 +6858,19 @@
         <v>4222</v>
       </c>
       <c r="J142">
+        <v>103230</v>
+      </c>
+      <c r="K142">
         <v>4526774</v>
       </c>
-      <c r="K142">
-        <v>304353</v>
-      </c>
       <c r="L142">
-        <v>27205.87551729538</v>
+        <v>304353000000</v>
       </c>
       <c r="M142">
-        <v>11187032</v>
+        <v>11242827</v>
+      </c>
+      <c r="N142">
+        <v>27070.86038057866</v>
       </c>
     </row>
     <row r="143">
@@ -6509,17 +6904,20 @@
         <v>1372</v>
       </c>
       <c r="J143">
+        <v>115124</v>
+      </c>
+      <c r="K143">
         <v>4884555</v>
       </c>
-      <c r="K143">
-        <v>395864.2</v>
-      </c>
       <c r="L143">
-        <v>34763.34026613968</v>
+        <v>395864200000</v>
       </c>
       <c r="M143">
         <v>11387404</v>
       </c>
+      <c r="N143">
+        <v>34763.34026613968</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6552,16 +6950,19 @@
         <v>-4497</v>
       </c>
       <c r="J144">
+        <v>90221</v>
+      </c>
+      <c r="K144">
         <v>4346047</v>
       </c>
-      <c r="K144">
-        <v>500274.2</v>
-      </c>
       <c r="L144">
-        <v>43365.66465404238</v>
+        <v>500274200000</v>
       </c>
       <c r="M144">
-        <v>11536182</v>
+        <v>11541932</v>
+      </c>
+      <c r="N144">
+        <v>43344.06059574775</v>
       </c>
     </row>
     <row r="145">
@@ -6595,17 +6996,20 @@
         <v>-456</v>
       </c>
       <c r="J145">
+        <v>86983</v>
+      </c>
+      <c r="K145">
         <v>4683156</v>
       </c>
-      <c r="K145">
-        <v>615275.5</v>
-      </c>
       <c r="L145">
-        <v>52701.96328412175</v>
+        <v>615275500000</v>
       </c>
       <c r="M145">
         <v>11674622</v>
       </c>
+      <c r="N145">
+        <v>52701.96328412175</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6638,16 +7042,19 @@
         <v>1831</v>
       </c>
       <c r="J146">
+        <v>25039</v>
+      </c>
+      <c r="K146">
         <v>1053257</v>
       </c>
-      <c r="K146">
-        <v>72767</v>
-      </c>
       <c r="L146">
-        <v>22120.08995529594</v>
+        <v>72767000000</v>
       </c>
       <c r="M146">
-        <v>3289634</v>
+        <v>3340129</v>
+      </c>
+      <c r="N146">
+        <v>21785.68552292441</v>
       </c>
     </row>
     <row r="147">
@@ -6681,17 +7088,20 @@
         <v>2407</v>
       </c>
       <c r="J147">
+        <v>36870</v>
+      </c>
+      <c r="K147">
         <v>1207698</v>
       </c>
-      <c r="K147">
-        <v>97505.3</v>
-      </c>
       <c r="L147">
-        <v>28123.01346947016</v>
+        <v>97505300000</v>
       </c>
       <c r="M147">
         <v>3467100</v>
       </c>
+      <c r="N147">
+        <v>28123.01346947016</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6724,16 +7134,19 @@
         <v>-457</v>
       </c>
       <c r="J148">
+        <v>29699</v>
+      </c>
+      <c r="K148">
         <v>1237213</v>
       </c>
-      <c r="K148">
-        <v>155267.5</v>
-      </c>
       <c r="L148">
-        <v>41275.8639573257</v>
+        <v>155267500000</v>
       </c>
       <c r="M148">
-        <v>3761702</v>
+        <v>3759558</v>
+      </c>
+      <c r="N148">
+        <v>41299.40274894017</v>
       </c>
     </row>
     <row r="149">
@@ -6767,17 +7180,20 @@
         <v>267</v>
       </c>
       <c r="J149">
+        <v>30374</v>
+      </c>
+      <c r="K149">
         <v>1367359</v>
       </c>
-      <c r="K149">
-        <v>187364.7</v>
-      </c>
       <c r="L149">
-        <v>48031.14665846343</v>
+        <v>187364700000</v>
       </c>
       <c r="M149">
         <v>3900900</v>
       </c>
+      <c r="N149">
+        <v>48031.14665846343</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6810,16 +7226,19 @@
         <v>894</v>
       </c>
       <c r="J150">
+        <v>27398</v>
+      </c>
+      <c r="K150">
         <v>1213470</v>
       </c>
-      <c r="K150">
-        <v>86967</v>
-      </c>
       <c r="L150">
-        <v>27218.97713583386</v>
+        <v>86967000000</v>
       </c>
       <c r="M150">
-        <v>3195087</v>
+        <v>3247111</v>
+      </c>
+      <c r="N150">
+        <v>26782.88484748443</v>
       </c>
     </row>
     <row r="151">
@@ -6853,17 +7272,20 @@
         <v>3237</v>
       </c>
       <c r="J151">
+        <v>37968</v>
+      </c>
+      <c r="K151">
         <v>1358475</v>
       </c>
-      <c r="K151">
-        <v>117002.4</v>
-      </c>
       <c r="L151">
-        <v>33738.32915649852</v>
+        <v>117002400000</v>
       </c>
       <c r="M151">
         <v>3467937</v>
       </c>
+      <c r="N151">
+        <v>33738.32915649852</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6896,16 +7318,19 @@
         <v>-1866</v>
       </c>
       <c r="J152">
+        <v>33896</v>
+      </c>
+      <c r="K152">
         <v>1324546</v>
       </c>
-      <c r="K152">
-        <v>163150.5</v>
-      </c>
       <c r="L152">
-        <v>42498.65262882601</v>
+        <v>163150500000</v>
       </c>
       <c r="M152">
-        <v>3838957</v>
+        <v>3837609</v>
+      </c>
+      <c r="N152">
+        <v>42513.58072174627</v>
       </c>
     </row>
     <row r="153">
@@ -6939,17 +7364,20 @@
         <v>-378</v>
       </c>
       <c r="J153">
+        <v>36792</v>
+      </c>
+      <c r="K153">
         <v>1494276</v>
       </c>
-      <c r="K153">
-        <v>200592.6</v>
-      </c>
       <c r="L153">
-        <v>49917.86640281721</v>
+        <v>200592600000</v>
       </c>
       <c r="M153">
         <v>4018453</v>
       </c>
+      <c r="N153">
+        <v>49917.86640281721</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6982,16 +7410,19 @@
         <v>3888</v>
       </c>
       <c r="J154">
+        <v>111075</v>
+      </c>
+      <c r="K154">
         <v>4644685</v>
       </c>
-      <c r="K154">
-        <v>328540</v>
-      </c>
       <c r="L154">
-        <v>27291.89081781637</v>
+        <v>328540000000</v>
       </c>
       <c r="M154">
-        <v>12038008</v>
+        <v>12220464</v>
+      </c>
+      <c r="N154">
+        <v>26884.41289954293</v>
       </c>
     </row>
     <row r="155">
@@ -7025,17 +7456,20 @@
         <v>4187</v>
       </c>
       <c r="J155">
+        <v>142171</v>
+      </c>
+      <c r="K155">
         <v>5063652</v>
       </c>
-      <c r="K155">
-        <v>428463.7</v>
-      </c>
       <c r="L155">
-        <v>34837.36442970428</v>
+        <v>428463700000</v>
       </c>
       <c r="M155">
         <v>12298970</v>
       </c>
+      <c r="N155">
+        <v>34837.36442970428</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7068,16 +7502,19 @@
         <v>-7828</v>
       </c>
       <c r="J156">
+        <v>116271</v>
+      </c>
+      <c r="K156">
         <v>4959360</v>
       </c>
-      <c r="K156">
-        <v>604629.6</v>
-      </c>
       <c r="L156">
-        <v>47572.55718695194</v>
+        <v>604629600000</v>
       </c>
       <c r="M156">
-        <v>12709630</v>
+        <v>12716596</v>
+      </c>
+      <c r="N156">
+        <v>47546.49750609361</v>
       </c>
     </row>
     <row r="157">
@@ -7111,17 +7548,20 @@
         <v>-4169</v>
       </c>
       <c r="J157">
+        <v>113822</v>
+      </c>
+      <c r="K157">
         <v>5290982</v>
       </c>
-      <c r="K157">
-        <v>716534.3</v>
-      </c>
       <c r="L157">
-        <v>55548.87295452908</v>
+        <v>716534300000</v>
       </c>
       <c r="M157">
         <v>12899169</v>
       </c>
+      <c r="N157">
+        <v>55548.87295452908</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7154,16 +7594,19 @@
         <v>682</v>
       </c>
       <c r="J158">
+        <v>10345</v>
+      </c>
+      <c r="K158">
         <v>369688</v>
       </c>
-      <c r="K158">
-        <v>25629</v>
-      </c>
       <c r="L158">
-        <v>25944.01219608486</v>
+        <v>25629000000</v>
       </c>
       <c r="M158">
-        <v>987858</v>
+        <v>1020893</v>
+      </c>
+      <c r="N158">
+        <v>25104.49185174156</v>
       </c>
     </row>
     <row r="159">
@@ -7197,17 +7640,20 @@
         <v>-363</v>
       </c>
       <c r="J159">
+        <v>10947</v>
+      </c>
+      <c r="K159">
         <v>413331</v>
       </c>
-      <c r="K159">
-        <v>35940.1</v>
-      </c>
       <c r="L159">
-        <v>33997.41945736713</v>
+        <v>35940100000</v>
       </c>
       <c r="M159">
         <v>1057142</v>
       </c>
+      <c r="N159">
+        <v>33997.41945736713</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7240,16 +7686,19 @@
         <v>-457</v>
       </c>
       <c r="J160">
+        <v>7183</v>
+      </c>
+      <c r="K160">
         <v>397581</v>
       </c>
-      <c r="K160">
-        <v>49409.1</v>
-      </c>
       <c r="L160">
-        <v>46927.30267094443</v>
+        <v>49409100000</v>
       </c>
       <c r="M160">
-        <v>1052886</v>
+        <v>1054975</v>
+      </c>
+      <c r="N160">
+        <v>46834.37996161047</v>
       </c>
     </row>
     <row r="161">
@@ -7283,17 +7732,20 @@
         <v>-544</v>
       </c>
       <c r="J161">
+        <v>6878</v>
+      </c>
+      <c r="K161">
         <v>423667</v>
       </c>
-      <c r="K161">
-        <v>56604</v>
-      </c>
       <c r="L161">
-        <v>52530.03326976349</v>
+        <v>56604000000</v>
       </c>
       <c r="M161">
         <v>1077555</v>
       </c>
+      <c r="N161">
+        <v>52530.03326976349</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7326,16 +7778,19 @@
         <v>218</v>
       </c>
       <c r="J162">
+        <v>23027</v>
+      </c>
+      <c r="K162">
         <v>1421207</v>
       </c>
-      <c r="K162">
-        <v>89476</v>
-      </c>
       <c r="L162">
-        <v>23930.62909771504</v>
+        <v>89476000000</v>
       </c>
       <c r="M162">
-        <v>3738974</v>
+        <v>3796200</v>
+      </c>
+      <c r="N162">
+        <v>23569.88567514883</v>
       </c>
     </row>
     <row r="163">
@@ -7369,17 +7824,20 @@
         <v>-8</v>
       </c>
       <c r="J163">
+        <v>30602</v>
+      </c>
+      <c r="K163">
         <v>1599314</v>
       </c>
-      <c r="K163">
-        <v>119355.2</v>
-      </c>
       <c r="L163">
-        <v>29361.70893199131</v>
+        <v>119355200000</v>
       </c>
       <c r="M163">
         <v>4064995</v>
       </c>
+      <c r="N163">
+        <v>29361.70893199131</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7412,16 +7870,19 @@
         <v>-1983</v>
       </c>
       <c r="J164">
+        <v>32532</v>
+      </c>
+      <c r="K164">
         <v>1506472</v>
       </c>
-      <c r="K164">
-        <v>166767.4</v>
-      </c>
       <c r="L164">
-        <v>35969.83982096114</v>
+        <v>166767400000</v>
       </c>
       <c r="M164">
-        <v>4636312</v>
+        <v>4633669</v>
+      </c>
+      <c r="N164">
+        <v>35990.35666984414</v>
       </c>
     </row>
     <row r="165">
@@ -7455,17 +7916,20 @@
         <v>860</v>
       </c>
       <c r="J165">
+        <v>33880</v>
+      </c>
+      <c r="K165">
         <v>1664920</v>
       </c>
-      <c r="K165">
-        <v>207510</v>
-      </c>
       <c r="L165">
-        <v>42784.36728372153</v>
+        <v>207510000000</v>
       </c>
       <c r="M165">
         <v>4850136</v>
       </c>
+      <c r="N165">
+        <v>42784.36728372153</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7476,9 +7940,6 @@
       <c r="B166">
         <v>1996</v>
       </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
       <c r="D166">
         <v>43</v>
       </c>
@@ -7498,16 +7959,19 @@
         <v>-711</v>
       </c>
       <c r="J166">
+        <v>5932</v>
+      </c>
+      <c r="K166">
         <v>274772</v>
       </c>
-      <c r="K166">
-        <v>20289</v>
-      </c>
       <c r="L166">
-        <v>27766.56324971021</v>
+        <v>20289000000</v>
       </c>
       <c r="M166">
-        <v>730699</v>
+        <v>742213</v>
+      </c>
+      <c r="N166">
+        <v>27335.81869355562</v>
       </c>
     </row>
     <row r="167">
@@ -7541,17 +8005,20 @@
         <v>59</v>
       </c>
       <c r="J167">
+        <v>8383</v>
+      </c>
+      <c r="K167">
         <v>313834</v>
       </c>
-      <c r="K167">
-        <v>23626.9</v>
-      </c>
       <c r="L167">
-        <v>31171.20421334825</v>
+        <v>23626900000</v>
       </c>
       <c r="M167">
         <v>757972</v>
       </c>
+      <c r="N167">
+        <v>31171.20421334825</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7562,9 +8029,6 @@
       <c r="B168">
         <v>2010</v>
       </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
       <c r="D168">
         <v>70</v>
       </c>
@@ -7584,16 +8048,19 @@
         <v>201</v>
       </c>
       <c r="J168">
+        <v>7544</v>
+      </c>
+      <c r="K168">
         <v>329649</v>
       </c>
-      <c r="K168">
-        <v>38208.2</v>
-      </c>
       <c r="L168">
-        <v>46797.22167446657</v>
+        <v>38208200000</v>
       </c>
       <c r="M168">
-        <v>816463</v>
+        <v>816068</v>
+      </c>
+      <c r="N168">
+        <v>46819.87285373278</v>
       </c>
     </row>
     <row r="169">
@@ -7627,17 +8094,20 @@
         <v>29</v>
       </c>
       <c r="J169">
+        <v>6967</v>
+      </c>
+      <c r="K169">
         <v>352794</v>
       </c>
-      <c r="K169">
-        <v>48678.9</v>
-      </c>
       <c r="L169">
-        <v>57132.91448999976</v>
+        <v>48678900000</v>
       </c>
       <c r="M169">
         <v>852029</v>
       </c>
+      <c r="N169">
+        <v>57132.91448999976</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7670,16 +8140,19 @@
         <v>1724</v>
       </c>
       <c r="J170">
+        <v>41122</v>
+      </c>
+      <c r="K170">
         <v>2151153</v>
       </c>
-      <c r="K170">
-        <v>140750</v>
-      </c>
       <c r="L170">
-        <v>26488.75258394723</v>
+        <v>140750000000</v>
       </c>
       <c r="M170">
-        <v>5313576</v>
+        <v>5416643</v>
+      </c>
+      <c r="N170">
+        <v>25984.7289178925</v>
       </c>
     </row>
     <row r="171">
@@ -7713,17 +8186,20 @@
         <v>2504</v>
       </c>
       <c r="J171">
+        <v>54014</v>
+      </c>
+      <c r="K171">
         <v>2351834</v>
       </c>
-      <c r="K171">
-        <v>185917.2</v>
-      </c>
       <c r="L171">
-        <v>32328.98998728696</v>
+        <v>185917200000</v>
       </c>
       <c r="M171">
         <v>5750789</v>
       </c>
+      <c r="N171">
+        <v>32328.98998728696</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7756,16 +8232,19 @@
         <v>-1858</v>
       </c>
       <c r="J172">
+        <v>47452</v>
+      </c>
+      <c r="K172">
         <v>2276797</v>
       </c>
-      <c r="K172">
-        <v>258657.6</v>
-      </c>
       <c r="L172">
-        <v>40689.28598339725</v>
+        <v>258657600000</v>
       </c>
       <c r="M172">
-        <v>6356897</v>
+        <v>6356388</v>
+      </c>
+      <c r="N172">
+        <v>40692.54425626629</v>
       </c>
     </row>
     <row r="173">
@@ -7799,17 +8278,20 @@
         <v>34</v>
       </c>
       <c r="J173">
+        <v>47967</v>
+      </c>
+      <c r="K173">
         <v>2512246</v>
       </c>
-      <c r="K173">
-        <v>326382.5</v>
-      </c>
       <c r="L173">
-        <v>49349.61312757998</v>
+        <v>326382500000</v>
       </c>
       <c r="M173">
         <v>6613679</v>
       </c>
+      <c r="N173">
+        <v>49349.61312757998</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7842,16 +8324,19 @@
         <v>11164</v>
       </c>
       <c r="J174">
+        <v>199114</v>
+      </c>
+      <c r="K174">
         <v>6811203</v>
       </c>
-      <c r="K174">
-        <v>551830</v>
-      </c>
       <c r="L174">
-        <v>29034.14878482014</v>
+        <v>551830000000</v>
       </c>
       <c r="M174">
-        <v>19006240</v>
+        <v>19340342</v>
+      </c>
+      <c r="N174">
+        <v>28532.58747958025</v>
       </c>
     </row>
     <row r="175">
@@ -7885,17 +8370,20 @@
         <v>21670</v>
       </c>
       <c r="J175">
+        <v>282047</v>
+      </c>
+      <c r="K175">
         <v>8130676</v>
       </c>
-      <c r="K175">
-        <v>780206.2</v>
-      </c>
       <c r="L175">
-        <v>36595.68635879191</v>
+        <v>780206200000</v>
       </c>
       <c r="M175">
         <v>21319622</v>
       </c>
+      <c r="N175">
+        <v>36595.68635879191</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7928,16 +8416,19 @@
         <v>-9200</v>
       </c>
       <c r="J176">
+        <v>228088</v>
+      </c>
+      <c r="K176">
         <v>8771776</v>
       </c>
-      <c r="K176">
-        <v>1255660.8</v>
-      </c>
       <c r="L176">
-        <v>49715.13372430437</v>
+        <v>1255660800000</v>
       </c>
       <c r="M176">
-        <v>25257114</v>
+        <v>25238386</v>
+      </c>
+      <c r="N176">
+        <v>49752.02455497748</v>
       </c>
     </row>
     <row r="177">
@@ -7971,17 +8462,20 @@
         <v>3637</v>
       </c>
       <c r="J177">
+        <v>244628</v>
+      </c>
+      <c r="K177">
         <v>10258601</v>
       </c>
-      <c r="K177">
-        <v>1585985.9</v>
-      </c>
       <c r="L177">
-        <v>57894.18294812066</v>
+        <v>1585985900000</v>
       </c>
       <c r="M177">
         <v>27394564</v>
       </c>
+      <c r="N177">
+        <v>57894.18294812066</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8014,16 +8508,19 @@
         <v>1626</v>
       </c>
       <c r="J178">
+        <v>22803</v>
+      </c>
+      <c r="K178">
         <v>771894</v>
       </c>
-      <c r="K178">
-        <v>50352</v>
-      </c>
       <c r="L178">
-        <v>24898.96170261584</v>
+        <v>50352000000</v>
       </c>
       <c r="M178">
-        <v>2022253</v>
+        <v>2067976</v>
+      </c>
+      <c r="N178">
+        <v>24348.44504965242</v>
       </c>
     </row>
     <row r="179">
@@ -8057,17 +8554,20 @@
         <v>1691</v>
       </c>
       <c r="J179">
+        <v>31718</v>
+      </c>
+      <c r="K179">
         <v>910546</v>
       </c>
-      <c r="K179">
-        <v>73042.5</v>
-      </c>
       <c r="L179">
-        <v>31984.06981606724</v>
+        <v>73042500000</v>
       </c>
       <c r="M179">
         <v>2283715</v>
       </c>
+      <c r="N179">
+        <v>31984.06981606724</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8100,16 +8600,19 @@
         <v>-840</v>
       </c>
       <c r="J180">
+        <v>33256</v>
+      </c>
+      <c r="K180">
         <v>1003573</v>
       </c>
-      <c r="K180">
-        <v>118296.3</v>
-      </c>
       <c r="L180">
-        <v>42606.74259284004</v>
+        <v>118296300000</v>
       </c>
       <c r="M180">
-        <v>2776469</v>
+        <v>2776212</v>
+      </c>
+      <c r="N180">
+        <v>42610.68679193088</v>
       </c>
     </row>
     <row r="181">
@@ -8143,17 +8646,20 @@
         <v>3062</v>
       </c>
       <c r="J181">
+        <v>46071</v>
+      </c>
+      <c r="K181">
         <v>1198540</v>
       </c>
-      <c r="K181">
-        <v>149762.1</v>
-      </c>
       <c r="L181">
-        <v>49913.22965329522</v>
+        <v>149762100000</v>
       </c>
       <c r="M181">
         <v>3000449</v>
       </c>
+      <c r="N181">
+        <v>49913.22965329522</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8186,16 +8692,19 @@
         <v>384</v>
       </c>
       <c r="J182">
+        <v>6300</v>
+      </c>
+      <c r="K182">
         <v>220626</v>
       </c>
-      <c r="K182">
-        <v>14611</v>
-      </c>
       <c r="L182">
-        <v>24918.479002374</v>
+        <v>14611000000</v>
       </c>
       <c r="M182">
-        <v>586352</v>
+        <v>593701</v>
+      </c>
+      <c r="N182">
+        <v>24610.03097518785</v>
       </c>
     </row>
     <row r="183">
@@ -8229,17 +8738,20 @@
         <v>43</v>
       </c>
       <c r="J183">
+        <v>7657</v>
+      </c>
+      <c r="K183">
         <v>253090</v>
       </c>
-      <c r="K183">
-        <v>19467.1</v>
-      </c>
       <c r="L183">
-        <v>31797.40062036219</v>
+        <v>19467100000</v>
       </c>
       <c r="M183">
         <v>612223</v>
       </c>
+      <c r="N183">
+        <v>31797.40062036219</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8272,16 +8784,19 @@
         <v>-156</v>
       </c>
       <c r="J184">
+        <v>5591</v>
+      </c>
+      <c r="K184">
         <v>254852</v>
       </c>
-      <c r="K184">
-        <v>27478.3</v>
-      </c>
       <c r="L184">
-        <v>43897.85289794875</v>
+        <v>27478300000</v>
       </c>
       <c r="M184">
-        <v>625960</v>
+        <v>626366</v>
+      </c>
+      <c r="N184">
+        <v>43869.399041455</v>
       </c>
     </row>
     <row r="185">
@@ -8315,17 +8830,20 @@
         <v>-60</v>
       </c>
       <c r="J185">
+        <v>6912</v>
+      </c>
+      <c r="K185">
         <v>265785</v>
       </c>
-      <c r="K185">
-        <v>31152.4</v>
-      </c>
       <c r="L185">
-        <v>48988.53929474518</v>
+        <v>31152400000</v>
       </c>
       <c r="M185">
         <v>635912</v>
       </c>
+      <c r="N185">
+        <v>48988.53929474518</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8358,16 +8876,19 @@
         <v>4700</v>
       </c>
       <c r="J186">
+        <v>86044</v>
+      </c>
+      <c r="K186">
         <v>2500902</v>
       </c>
-      <c r="K186">
-        <v>197809</v>
-      </c>
       <c r="L186">
-        <v>29676.58346549414</v>
+        <v>197809000000</v>
       </c>
       <c r="M186">
-        <v>6665491</v>
+        <v>6750884</v>
+      </c>
+      <c r="N186">
+        <v>29301.19966511053</v>
       </c>
     </row>
     <row r="187">
@@ -8401,17 +8922,20 @@
         <v>10723</v>
       </c>
       <c r="J187">
+        <v>145412</v>
+      </c>
+      <c r="K187">
         <v>2932650</v>
       </c>
-      <c r="K187">
-        <v>285663.4</v>
-      </c>
       <c r="L187">
-        <v>39684.5004460737</v>
+        <v>285663400000</v>
       </c>
       <c r="M187">
         <v>7198362</v>
       </c>
+      <c r="N187">
+        <v>39684.5004460737</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8444,16 +8968,19 @@
         <v>-5841</v>
       </c>
       <c r="J188">
+        <v>93436</v>
+      </c>
+      <c r="K188">
         <v>3005016</v>
       </c>
-      <c r="K188">
-        <v>425490.8</v>
-      </c>
       <c r="L188">
-        <v>53023.19101335303</v>
+        <v>425490800000</v>
       </c>
       <c r="M188">
-        <v>8024617</v>
+        <v>8025105</v>
+      </c>
+      <c r="N188">
+        <v>53019.96671694638</v>
       </c>
     </row>
     <row r="189">
@@ -8487,17 +9014,20 @@
         <v>1429</v>
       </c>
       <c r="J189">
+        <v>97378</v>
+      </c>
+      <c r="K189">
         <v>3210464</v>
       </c>
-      <c r="K189">
-        <v>485540.9</v>
-      </c>
       <c r="L189">
-        <v>57867.97535401372</v>
+        <v>485540900000</v>
       </c>
       <c r="M189">
         <v>8390494</v>
       </c>
+      <c r="N189">
+        <v>57867.97535401372</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8530,16 +9060,19 @@
         <v>2899</v>
       </c>
       <c r="J190">
+        <v>59791</v>
+      </c>
+      <c r="K190">
         <v>1952837</v>
       </c>
-      <c r="K190">
-        <v>159602</v>
-      </c>
       <c r="L190">
-        <v>28966.07472681758</v>
+        <v>159602000000</v>
       </c>
       <c r="M190">
-        <v>5509963</v>
+        <v>5569753</v>
+      </c>
+      <c r="N190">
+        <v>28655.1306673743</v>
       </c>
     </row>
     <row r="191">
@@ -8573,17 +9106,20 @@
         <v>7276</v>
       </c>
       <c r="J191">
+        <v>88203</v>
+      </c>
+      <c r="K191">
         <v>2249797</v>
       </c>
-      <c r="K191">
-        <v>237978.2</v>
-      </c>
       <c r="L191">
-        <v>39757.64327177239</v>
+        <v>237978200000</v>
       </c>
       <c r="M191">
         <v>5985722</v>
       </c>
+      <c r="N191">
+        <v>39757.64327177239</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8616,16 +9152,19 @@
         <v>219</v>
       </c>
       <c r="J192">
+        <v>113738</v>
+      </c>
+      <c r="K192">
         <v>2288672</v>
       </c>
-      <c r="K192">
-        <v>363544.2</v>
-      </c>
       <c r="L192">
-        <v>53902.35237740522</v>
+        <v>363544200000</v>
       </c>
       <c r="M192">
-        <v>6744496</v>
+        <v>6743680</v>
+      </c>
+      <c r="N192">
+        <v>53908.87467970011</v>
       </c>
     </row>
     <row r="193">
@@ -8659,17 +9198,20 @@
         <v>2509</v>
       </c>
       <c r="J193">
+        <v>127103</v>
+      </c>
+      <c r="K193">
         <v>2555527</v>
       </c>
-      <c r="K193">
-        <v>467590.6</v>
-      </c>
       <c r="L193">
-        <v>65111.18905920656</v>
+        <v>467590600000</v>
       </c>
       <c r="M193">
         <v>7181417</v>
       </c>
+      <c r="N193">
+        <v>65111.18905920656</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8702,16 +9244,19 @@
         <v>277</v>
       </c>
       <c r="J194">
+        <v>12511</v>
+      </c>
+      <c r="K194">
         <v>522160</v>
       </c>
-      <c r="K194">
-        <v>37160</v>
-      </c>
       <c r="L194">
-        <v>20428.99796204802</v>
+        <v>37160000000</v>
       </c>
       <c r="M194">
-        <v>1818983</v>
+        <v>1822808</v>
+      </c>
+      <c r="N194">
+        <v>20386.12953201873</v>
       </c>
     </row>
     <row r="195">
@@ -8745,17 +9290,20 @@
         <v>-444</v>
       </c>
       <c r="J195">
+        <v>13965</v>
+      </c>
+      <c r="K195">
         <v>556461</v>
       </c>
-      <c r="K195">
-        <v>44105.1</v>
-      </c>
       <c r="L195">
-        <v>24482.68952045567</v>
+        <v>44105100000</v>
       </c>
       <c r="M195">
         <v>1801481</v>
       </c>
+      <c r="N195">
+        <v>24482.68952045567</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8788,16 +9336,19 @@
         <v>-107</v>
       </c>
       <c r="J196">
+        <v>10498</v>
+      </c>
+      <c r="K196">
         <v>563535</v>
       </c>
-      <c r="K196">
-        <v>66160.39999999999</v>
-      </c>
       <c r="L196">
-        <v>35685.7408387285</v>
+        <v>66160399999.99999</v>
       </c>
       <c r="M196">
-        <v>1853973</v>
+        <v>1854404</v>
+      </c>
+      <c r="N196">
+        <v>35677.44676995951</v>
       </c>
     </row>
     <row r="197">
@@ -8809,9 +9360,6 @@
       <c r="B197">
         <v>2015</v>
       </c>
-      <c r="C197">
-        <v>0</v>
-      </c>
       <c r="D197">
         <v>127</v>
       </c>
@@ -8831,17 +9379,20 @@
         <v>102</v>
       </c>
       <c r="J197">
+        <v>10624</v>
+      </c>
+      <c r="K197">
         <v>567642</v>
       </c>
-      <c r="K197">
-        <v>71713.39999999999</v>
-      </c>
       <c r="L197">
-        <v>38842.3145043791</v>
+        <v>71713400000</v>
       </c>
       <c r="M197">
         <v>1846270</v>
       </c>
+      <c r="N197">
+        <v>38842.3145043791</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8852,9 +9403,6 @@
       <c r="B198">
         <v>1996</v>
       </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
       <c r="D198">
         <v>1320</v>
       </c>
@@ -8874,16 +9422,19 @@
         <v>1592</v>
       </c>
       <c r="J198">
+        <v>46060</v>
+      </c>
+      <c r="K198">
         <v>2193435</v>
       </c>
-      <c r="K198">
-        <v>139160</v>
-      </c>
       <c r="L198">
-        <v>26896.91269211114</v>
+        <v>139160000000</v>
       </c>
       <c r="M198">
-        <v>5173828</v>
+        <v>5229986</v>
+      </c>
+      <c r="N198">
+        <v>26608.1018190106</v>
       </c>
     </row>
     <row r="199">
@@ -8917,17 +9468,20 @@
         <v>904</v>
       </c>
       <c r="J199">
+        <v>54250</v>
+      </c>
+      <c r="K199">
         <v>2384963</v>
       </c>
-      <c r="K199">
-        <v>188662.8</v>
-      </c>
       <c r="L199">
-        <v>34893.38957079327</v>
+        <v>188662800000</v>
       </c>
       <c r="M199">
         <v>5406835</v>
       </c>
+      <c r="N199">
+        <v>34893.38957079327</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8960,16 +9514,19 @@
         <v>3404</v>
       </c>
       <c r="J200">
+        <v>54251</v>
+      </c>
+      <c r="K200">
         <v>2319413</v>
       </c>
-      <c r="K200">
-        <v>256159.5</v>
-      </c>
       <c r="L200">
-        <v>45010.96195480374</v>
+        <v>256159500000</v>
       </c>
       <c r="M200">
-        <v>5691047</v>
+        <v>5692038</v>
+      </c>
+      <c r="N200">
+        <v>45003.12541834752</v>
       </c>
     </row>
     <row r="201">
@@ -9003,17 +9560,20 @@
         <v>1310</v>
       </c>
       <c r="J201">
+        <v>56700</v>
+      </c>
+      <c r="K201">
         <v>2493248</v>
       </c>
-      <c r="K201">
-        <v>308304.5</v>
-      </c>
       <c r="L201">
-        <v>53206.0720651317</v>
+        <v>308304500000</v>
       </c>
       <c r="M201">
         <v>5794536</v>
       </c>
+      <c r="N201">
+        <v>53206.0720651317</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -9024,9 +9584,6 @@
       <c r="B202">
         <v>1996</v>
       </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
       <c r="D202">
         <v>33</v>
       </c>
@@ -9046,16 +9603,19 @@
         <v>-25</v>
       </c>
       <c r="J202">
+        <v>3444</v>
+      </c>
+      <c r="K202">
         <v>152578</v>
       </c>
-      <c r="K202">
-        <v>16847</v>
-      </c>
       <c r="L202">
-        <v>35091.70251101367</v>
+        <v>16847000000</v>
       </c>
       <c r="M202">
-        <v>480085</v>
+        <v>488167</v>
+      </c>
+      <c r="N202">
+        <v>34510.73095887268</v>
       </c>
     </row>
     <row r="203">
@@ -9067,9 +9627,6 @@
       <c r="B203">
         <v>2001</v>
       </c>
-      <c r="C203">
-        <v>0</v>
-      </c>
       <c r="D203">
         <v>51</v>
       </c>
@@ -9089,17 +9646,20 @@
         <v>54</v>
       </c>
       <c r="J203">
+        <v>3936</v>
+      </c>
+      <c r="K203">
         <v>178625</v>
       </c>
-      <c r="K203">
-        <v>18741.7</v>
-      </c>
       <c r="L203">
-        <v>37888.27409700055</v>
+        <v>18741700000</v>
       </c>
       <c r="M203">
         <v>494657</v>
       </c>
+      <c r="N203">
+        <v>37888.27409700055</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -9132,16 +9692,19 @@
         <v>-151</v>
       </c>
       <c r="J204">
+        <v>3938</v>
+      </c>
+      <c r="K204">
         <v>202713</v>
       </c>
-      <c r="K204">
-        <v>37567.5</v>
-      </c>
       <c r="L204">
-        <v>66554.76030188144</v>
+        <v>37567500000</v>
       </c>
       <c r="M204">
-        <v>564460</v>
+        <v>564402</v>
+      </c>
+      <c r="N204">
+        <v>66561.5997108444</v>
       </c>
     </row>
     <row r="205">
@@ -9153,9 +9716,6 @@
       <c r="B205">
         <v>2015</v>
       </c>
-      <c r="C205">
-        <v>0</v>
-      </c>
       <c r="D205">
         <v>110</v>
       </c>
@@ -9175,17 +9735,20 @@
         <v>-83</v>
       </c>
       <c r="J205">
+        <v>4066</v>
+      </c>
+      <c r="K205">
         <v>220284</v>
       </c>
-      <c r="K205">
-        <v>38624.8</v>
-      </c>
       <c r="L205">
-        <v>66175.63661720387</v>
+        <v>38624800000</v>
       </c>
       <c r="M205">
         <v>583671</v>
       </c>
+      <c r="N205">
+        <v>66175.63661720387</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -9218,16 +9781,19 @@
         <v>92825</v>
       </c>
       <c r="J206">
+        <v>2885902</v>
+      </c>
+      <c r="K206">
         <v>100035606</v>
       </c>
-      <c r="K206">
-        <v>7631022</v>
-      </c>
       <c r="L206">
-        <v>28771.38451213125</v>
+        <v>7631022000000</v>
       </c>
       <c r="M206">
-        <v>265229572</v>
+        <v>269394284</v>
+      </c>
+      <c r="N206">
+        <v>28326.59211136046</v>
       </c>
     </row>
     <row r="207">
@@ -9261,17 +9827,20 @@
         <v>149625</v>
       </c>
       <c r="J207">
+        <v>3758815</v>
+      </c>
+      <c r="K207">
         <v>113762122</v>
       </c>
-      <c r="K207">
-        <v>10581929</v>
-      </c>
       <c r="L207">
-        <v>37133.6203973517</v>
+        <v>10581929000000</v>
       </c>
       <c r="M207">
         <v>284968955</v>
       </c>
+      <c r="N207">
+        <v>37133.6203973517</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -9304,16 +9873,19 @@
         <v>-142511</v>
       </c>
       <c r="J208">
+        <v>3133993</v>
+      </c>
+      <c r="K208">
         <v>111309955</v>
       </c>
-      <c r="K208">
-        <v>15048971</v>
-      </c>
       <c r="L208">
-        <v>48647.11856878576</v>
+        <v>15048971000000</v>
       </c>
       <c r="M208">
-        <v>309349689</v>
+        <v>309378227</v>
+      </c>
+      <c r="N208">
+        <v>48642.6312088213</v>
       </c>
     </row>
     <row r="209">
@@ -9347,16 +9919,19 @@
         <v>43044</v>
       </c>
       <c r="J209">
+        <v>3386512</v>
+      </c>
+      <c r="K209">
         <v>123230846</v>
       </c>
-      <c r="K209">
-        <v>18295019</v>
-      </c>
       <c r="L209">
-        <v>56849.46979231594</v>
+        <v>18295019000000</v>
       </c>
       <c r="M209">
         <v>321815121</v>
+      </c>
+      <c r="N209">
+        <v>56849.46979231594</v>
       </c>
     </row>
   </sheetData>
